--- a/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.277737725571967</v>
+        <v>1.277737725571825</v>
       </c>
       <c r="C2">
-        <v>0.5478112058698059</v>
+        <v>0.547811205870488</v>
       </c>
       <c r="D2">
-        <v>0.04514718993697997</v>
+        <v>0.0451471899367597</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.4436936328635</v>
+        <v>2.443693632863514</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4217951854988939</v>
+        <v>0.4217951854988868</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.793345311521151</v>
+        <v>2.793345311521165</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.103229491660784</v>
+        <v>1.103229491660898</v>
       </c>
       <c r="C3">
-        <v>0.4717772369744466</v>
+        <v>0.471777236974674</v>
       </c>
       <c r="D3">
-        <v>0.04362913351941344</v>
+        <v>0.04362913351950581</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.369740432624781</v>
+        <v>2.369740432624837</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9972489024308686</v>
+        <v>0.9972489024308402</v>
       </c>
       <c r="C4">
-        <v>0.4257973171655465</v>
+        <v>0.4257973171656602</v>
       </c>
       <c r="D4">
-        <v>0.04275774933703147</v>
+        <v>0.04275774933705279</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.002407718249472</v>
+        <v>2.002407718249486</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3287748735933036</v>
+        <v>0.3287748735933107</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.120152997750878</v>
+        <v>2.120152997750864</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9543057325165591</v>
+        <v>0.9543057325166444</v>
       </c>
       <c r="C5">
-        <v>0.4072080380682621</v>
+        <v>0.4072080380682905</v>
       </c>
       <c r="D5">
-        <v>0.04241574706392726</v>
+        <v>0.04241574706406226</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.936256560651884</v>
+        <v>1.936256560651856</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3145553704167625</v>
+        <v>0.3145553704167341</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,34 +567,34 @@
         <v>0.9471884783599194</v>
       </c>
       <c r="C6">
-        <v>0.4041294270695346</v>
+        <v>0.4041294270698472</v>
       </c>
       <c r="D6">
-        <v>0.04235969027795861</v>
+        <v>0.0423596902779515</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.925331479573344</v>
+        <v>1.925331479573401</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.19913573152607</v>
+        <v>1.199135731526056</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.312199237498973</v>
+        <v>0.3121992374989659</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.00420293753352</v>
+        <v>2.004202937533506</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9966688266064807</v>
+        <v>0.9966688266065091</v>
       </c>
       <c r="C7">
-        <v>0.4255460536747933</v>
+        <v>0.4255460536748501</v>
       </c>
       <c r="D7">
-        <v>0.04275308663203248</v>
+        <v>0.04275308663195077</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.001511518093281</v>
+        <v>2.001511518093267</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.239164614331543</v>
+        <v>1.239164614331528</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3285827581152958</v>
+        <v>0.3285827581152674</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.11880235454791</v>
+        <v>2.118802354547938</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.217294069113876</v>
+        <v>1.217294069113933</v>
       </c>
       <c r="C8">
-        <v>0.5214297009286213</v>
+        <v>0.5214297009285644</v>
       </c>
       <c r="D8">
-        <v>0.04460976594365462</v>
+        <v>0.04460976594367239</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4017285808184994</v>
+        <v>0.4017285808184923</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.644794662396805</v>
+        <v>2.644794662396833</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.661651373432449</v>
+        <v>1.66165137343225</v>
       </c>
       <c r="C9">
-        <v>0.7165495689124839</v>
+        <v>0.7165495689127113</v>
       </c>
       <c r="D9">
-        <v>0.04884810364831083</v>
+        <v>0.04884810364831793</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.071362417193939</v>
+        <v>3.07136241719391</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.999041989671014</v>
+        <v>1.999041989670957</v>
       </c>
       <c r="C10">
-        <v>0.8666191072949232</v>
+        <v>0.8666191072946958</v>
       </c>
       <c r="D10">
-        <v>0.05252439696278088</v>
+        <v>0.05252439696277378</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.113191166955815</v>
+        <v>2.113191166955801</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6622175214325523</v>
+        <v>0.6622175214325594</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.740814353912938</v>
+        <v>4.74081435391291</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.15584896352064</v>
+        <v>2.155848963520469</v>
       </c>
       <c r="C11">
-        <v>0.9369847993049234</v>
+        <v>0.9369847993046392</v>
       </c>
       <c r="D11">
-        <v>0.05437815823143666</v>
+        <v>0.05437815823153613</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.917889152921617</v>
+        <v>3.917889152921646</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.215793265750136</v>
+        <v>2.21579326575025</v>
       </c>
       <c r="C12">
-        <v>0.9639955843530856</v>
+        <v>0.9639955843533698</v>
       </c>
       <c r="D12">
-        <v>0.05511285644463015</v>
+        <v>0.05511285644426778</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.404266595037086</v>
+        <v>5.4042665950371</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.202856608788125</v>
+        <v>2.202856608788096</v>
       </c>
       <c r="C13">
         <v>0.95816098424757</v>
       </c>
       <c r="D13">
-        <v>0.05495304454976235</v>
+        <v>0.05495304454974814</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.304940303500771</v>
+        <v>2.304940303500786</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7305013833023821</v>
+        <v>0.7305013833023892</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.363397178940176</v>
+        <v>5.363397178940147</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.160768774325675</v>
+        <v>2.160768774325845</v>
       </c>
       <c r="C14">
-        <v>0.9391992821915665</v>
+        <v>0.939199282191737</v>
       </c>
       <c r="D14">
-        <v>0.05443790178043173</v>
+        <v>0.05443790178038199</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.92654198756901</v>
+        <v>3.926541987569095</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.264936401581735</v>
+        <v>2.264936401581807</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.231603738916476</v>
+        <v>5.231603738916519</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.135065020809748</v>
+        <v>2.135065020809719</v>
       </c>
       <c r="C15">
-        <v>0.9276342542281384</v>
+        <v>0.9276342542276552</v>
       </c>
       <c r="D15">
-        <v>0.05412685176357712</v>
+        <v>0.05412685176337817</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.881386057815462</v>
+        <v>3.881386057815376</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.240611251982799</v>
+        <v>2.24061125198277</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7077704498675885</v>
+        <v>0.7077704498675672</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.151974684019152</v>
+        <v>5.151974684019166</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.988868453303184</v>
+        <v>1.988868453302956</v>
       </c>
       <c r="C16">
-        <v>0.8620679294345734</v>
+        <v>0.8620679294340903</v>
       </c>
       <c r="D16">
-        <v>0.05240742619876926</v>
+        <v>0.05240742619852767</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.626913875182254</v>
+        <v>3.626913875182197</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6588134341609191</v>
+        <v>0.6588134341609333</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.900092805875545</v>
+        <v>1.900092805875602</v>
       </c>
       <c r="C17">
-        <v>0.822424311606369</v>
+        <v>0.8224243116061416</v>
       </c>
       <c r="D17">
-        <v>0.05140325823848002</v>
+        <v>0.0514032582384587</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.021849328215424</v>
+        <v>2.021849328215438</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6291257850640761</v>
+        <v>0.629125785064069</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.849338833055384</v>
+        <v>1.849338833055583</v>
       </c>
       <c r="C18">
-        <v>0.799815534938034</v>
+        <v>0.7998155349385172</v>
       </c>
       <c r="D18">
-        <v>0.05084227786356621</v>
+        <v>0.05084227786346673</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.832204694495829</v>
+        <v>1.832204694495886</v>
       </c>
       <c r="C19">
-        <v>0.7921920110264296</v>
+        <v>0.7921920110267422</v>
       </c>
       <c r="D19">
-        <v>0.05065501481841039</v>
+        <v>0.0506550148184246</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6064432272345215</v>
+        <v>0.6064432272345144</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.258024144640302</v>
+        <v>4.258024144640316</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909510703324059</v>
+        <v>1.909510703324088</v>
       </c>
       <c r="C20">
-        <v>0.8266240239126716</v>
+        <v>0.8266240239126148</v>
       </c>
       <c r="D20">
-        <v>0.05150839417144226</v>
+        <v>0.05150839417119357</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.490426708463161</v>
+        <v>3.490426708463247</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6322738229177105</v>
+        <v>0.6322738229176679</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.47895414346813</v>
+        <v>4.478954143468172</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.173114934520981</v>
+        <v>2.17311493452118</v>
       </c>
       <c r="C21">
-        <v>0.9447583371822361</v>
+        <v>0.9447583371825488</v>
       </c>
       <c r="D21">
-        <v>0.05458826139323492</v>
+        <v>0.05458826139343387</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.948276599100609</v>
+        <v>3.948276599100666</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.276648833818271</v>
+        <v>2.2766488338183</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7205264583445725</v>
+        <v>0.7205264583445654</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.270081222365647</v>
+        <v>5.270081222365661</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.348733212681225</v>
+        <v>2.348733212681395</v>
       </c>
       <c r="C22">
-        <v>1.024129812855222</v>
+        <v>1.024129812855023</v>
       </c>
       <c r="D22">
-        <v>0.05679646014789341</v>
+        <v>0.05679646014790052</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7794814971896571</v>
+        <v>0.7794814971896429</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.254666643896201</v>
+        <v>2.254666643896229</v>
       </c>
       <c r="C23">
-        <v>0.9815460371848985</v>
+        <v>0.9815460371851827</v>
       </c>
       <c r="D23">
-        <v>0.05559730038915234</v>
+        <v>0.05559730038901023</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.354485220956335</v>
+        <v>2.354485220956349</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.528122570871247</v>
+        <v>5.528122570871275</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.905251992734179</v>
+        <v>1.905251992734236</v>
       </c>
       <c r="C24">
-        <v>0.8247247690150061</v>
+        <v>0.8247247690148072</v>
       </c>
       <c r="D24">
-        <v>0.05146081182816431</v>
+        <v>0.05146081182805773</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.483134290493552</v>
+        <v>3.483134290493524</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.46666146133748</v>
+        <v>4.466661461337509</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.539819516317806</v>
+        <v>1.539819516317721</v>
       </c>
       <c r="C25">
-        <v>0.66277742215334</v>
+        <v>0.6627774221528568</v>
       </c>
       <c r="D25">
         <v>0.04761948056317067</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5089422287768883</v>
+        <v>0.508942228776867</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.461393986638839</v>
+        <v>3.461393986638811</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.277737725571825</v>
+        <v>1.277737725571967</v>
       </c>
       <c r="C2">
-        <v>0.547811205870488</v>
+        <v>0.5478112058698059</v>
       </c>
       <c r="D2">
-        <v>0.0451471899367597</v>
+        <v>0.04514718993697997</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.443693632863514</v>
+        <v>2.4436936328635</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4217951854988868</v>
+        <v>0.4217951854988939</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.793345311521165</v>
+        <v>2.793345311521151</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.103229491660898</v>
+        <v>1.103229491660784</v>
       </c>
       <c r="C3">
-        <v>0.471777236974674</v>
+        <v>0.4717772369744466</v>
       </c>
       <c r="D3">
-        <v>0.04362913351950581</v>
+        <v>0.04362913351941344</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.369740432624837</v>
+        <v>2.369740432624781</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9972489024308402</v>
+        <v>0.9972489024308686</v>
       </c>
       <c r="C4">
-        <v>0.4257973171656602</v>
+        <v>0.4257973171655465</v>
       </c>
       <c r="D4">
-        <v>0.04275774933705279</v>
+        <v>0.04275774933703147</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.002407718249486</v>
+        <v>2.002407718249472</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3287748735933107</v>
+        <v>0.3287748735933036</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.120152997750864</v>
+        <v>2.120152997750878</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9543057325166444</v>
+        <v>0.9543057325165591</v>
       </c>
       <c r="C5">
-        <v>0.4072080380682905</v>
+        <v>0.4072080380682621</v>
       </c>
       <c r="D5">
-        <v>0.04241574706406226</v>
+        <v>0.04241574706392726</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.936256560651856</v>
+        <v>1.936256560651884</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3145553704167341</v>
+        <v>0.3145553704167625</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,34 +567,34 @@
         <v>0.9471884783599194</v>
       </c>
       <c r="C6">
-        <v>0.4041294270698472</v>
+        <v>0.4041294270695346</v>
       </c>
       <c r="D6">
-        <v>0.0423596902779515</v>
+        <v>0.04235969027795861</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.925331479573401</v>
+        <v>1.925331479573344</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.199135731526056</v>
+        <v>1.19913573152607</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3121992374989659</v>
+        <v>0.312199237498973</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.004202937533506</v>
+        <v>2.00420293753352</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9966688266065091</v>
+        <v>0.9966688266064807</v>
       </c>
       <c r="C7">
-        <v>0.4255460536748501</v>
+        <v>0.4255460536747933</v>
       </c>
       <c r="D7">
-        <v>0.04275308663195077</v>
+        <v>0.04275308663203248</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.001511518093267</v>
+        <v>2.001511518093281</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.239164614331528</v>
+        <v>1.239164614331543</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3285827581152674</v>
+        <v>0.3285827581152958</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.118802354547938</v>
+        <v>2.11880235454791</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.217294069113933</v>
+        <v>1.217294069113876</v>
       </c>
       <c r="C8">
-        <v>0.5214297009285644</v>
+        <v>0.5214297009286213</v>
       </c>
       <c r="D8">
-        <v>0.04460976594367239</v>
+        <v>0.04460976594365462</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4017285808184923</v>
+        <v>0.4017285808184994</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.644794662396833</v>
+        <v>2.644794662396805</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.66165137343225</v>
+        <v>1.661651373432449</v>
       </c>
       <c r="C9">
-        <v>0.7165495689127113</v>
+        <v>0.7165495689124839</v>
       </c>
       <c r="D9">
-        <v>0.04884810364831793</v>
+        <v>0.04884810364831083</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.07136241719391</v>
+        <v>3.071362417193939</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.999041989670957</v>
+        <v>1.999041989671014</v>
       </c>
       <c r="C10">
-        <v>0.8666191072946958</v>
+        <v>0.8666191072949232</v>
       </c>
       <c r="D10">
-        <v>0.05252439696277378</v>
+        <v>0.05252439696278088</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.113191166955801</v>
+        <v>2.113191166955815</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6622175214325594</v>
+        <v>0.6622175214325523</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.74081435391291</v>
+        <v>4.740814353912938</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.155848963520469</v>
+        <v>2.15584896352064</v>
       </c>
       <c r="C11">
-        <v>0.9369847993046392</v>
+        <v>0.9369847993049234</v>
       </c>
       <c r="D11">
-        <v>0.05437815823153613</v>
+        <v>0.05437815823143666</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.917889152921646</v>
+        <v>3.917889152921617</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.21579326575025</v>
+        <v>2.215793265750136</v>
       </c>
       <c r="C12">
-        <v>0.9639955843533698</v>
+        <v>0.9639955843530856</v>
       </c>
       <c r="D12">
-        <v>0.05511285644426778</v>
+        <v>0.05511285644463015</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.4042665950371</v>
+        <v>5.404266595037086</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.202856608788096</v>
+        <v>2.202856608788125</v>
       </c>
       <c r="C13">
         <v>0.95816098424757</v>
       </c>
       <c r="D13">
-        <v>0.05495304454974814</v>
+        <v>0.05495304454976235</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.304940303500786</v>
+        <v>2.304940303500771</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7305013833023892</v>
+        <v>0.7305013833023821</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.363397178940147</v>
+        <v>5.363397178940176</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.160768774325845</v>
+        <v>2.160768774325675</v>
       </c>
       <c r="C14">
-        <v>0.939199282191737</v>
+        <v>0.9391992821915665</v>
       </c>
       <c r="D14">
-        <v>0.05443790178038199</v>
+        <v>0.05443790178043173</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.926541987569095</v>
+        <v>3.92654198756901</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.264936401581807</v>
+        <v>2.264936401581735</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.231603738916519</v>
+        <v>5.231603738916476</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.135065020809719</v>
+        <v>2.135065020809748</v>
       </c>
       <c r="C15">
-        <v>0.9276342542276552</v>
+        <v>0.9276342542281384</v>
       </c>
       <c r="D15">
-        <v>0.05412685176337817</v>
+        <v>0.05412685176357712</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.881386057815376</v>
+        <v>3.881386057815462</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.24061125198277</v>
+        <v>2.240611251982799</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7077704498675672</v>
+        <v>0.7077704498675885</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.151974684019166</v>
+        <v>5.151974684019152</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.988868453302956</v>
+        <v>1.988868453303184</v>
       </c>
       <c r="C16">
-        <v>0.8620679294340903</v>
+        <v>0.8620679294345734</v>
       </c>
       <c r="D16">
-        <v>0.05240742619852767</v>
+        <v>0.05240742619876926</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.626913875182197</v>
+        <v>3.626913875182254</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6588134341609333</v>
+        <v>0.6588134341609191</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.900092805875602</v>
+        <v>1.900092805875545</v>
       </c>
       <c r="C17">
-        <v>0.8224243116061416</v>
+        <v>0.822424311606369</v>
       </c>
       <c r="D17">
-        <v>0.0514032582384587</v>
+        <v>0.05140325823848002</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.021849328215438</v>
+        <v>2.021849328215424</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.629125785064069</v>
+        <v>0.6291257850640761</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.849338833055583</v>
+        <v>1.849338833055384</v>
       </c>
       <c r="C18">
-        <v>0.7998155349385172</v>
+        <v>0.799815534938034</v>
       </c>
       <c r="D18">
-        <v>0.05084227786346673</v>
+        <v>0.05084227786356621</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.832204694495886</v>
+        <v>1.832204694495829</v>
       </c>
       <c r="C19">
-        <v>0.7921920110267422</v>
+        <v>0.7921920110264296</v>
       </c>
       <c r="D19">
-        <v>0.0506550148184246</v>
+        <v>0.05065501481841039</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6064432272345144</v>
+        <v>0.6064432272345215</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.258024144640316</v>
+        <v>4.258024144640302</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909510703324088</v>
+        <v>1.909510703324059</v>
       </c>
       <c r="C20">
-        <v>0.8266240239126148</v>
+        <v>0.8266240239126716</v>
       </c>
       <c r="D20">
-        <v>0.05150839417119357</v>
+        <v>0.05150839417144226</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.490426708463247</v>
+        <v>3.490426708463161</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6322738229176679</v>
+        <v>0.6322738229177105</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.478954143468172</v>
+        <v>4.47895414346813</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.17311493452118</v>
+        <v>2.173114934520981</v>
       </c>
       <c r="C21">
-        <v>0.9447583371825488</v>
+        <v>0.9447583371822361</v>
       </c>
       <c r="D21">
-        <v>0.05458826139343387</v>
+        <v>0.05458826139323492</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.948276599100666</v>
+        <v>3.948276599100609</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.2766488338183</v>
+        <v>2.276648833818271</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7205264583445654</v>
+        <v>0.7205264583445725</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.270081222365661</v>
+        <v>5.270081222365647</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.348733212681395</v>
+        <v>2.348733212681225</v>
       </c>
       <c r="C22">
-        <v>1.024129812855023</v>
+        <v>1.024129812855222</v>
       </c>
       <c r="D22">
-        <v>0.05679646014790052</v>
+        <v>0.05679646014789341</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7794814971896429</v>
+        <v>0.7794814971896571</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.254666643896229</v>
+        <v>2.254666643896201</v>
       </c>
       <c r="C23">
-        <v>0.9815460371851827</v>
+        <v>0.9815460371848985</v>
       </c>
       <c r="D23">
-        <v>0.05559730038901023</v>
+        <v>0.05559730038915234</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.354485220956349</v>
+        <v>2.354485220956335</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.528122570871275</v>
+        <v>5.528122570871247</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.905251992734236</v>
+        <v>1.905251992734179</v>
       </c>
       <c r="C24">
-        <v>0.8247247690148072</v>
+        <v>0.8247247690150061</v>
       </c>
       <c r="D24">
-        <v>0.05146081182805773</v>
+        <v>0.05146081182816431</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.483134290493524</v>
+        <v>3.483134290493552</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.466661461337509</v>
+        <v>4.46666146133748</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.539819516317721</v>
+        <v>1.539819516317806</v>
       </c>
       <c r="C25">
-        <v>0.6627774221528568</v>
+        <v>0.66277742215334</v>
       </c>
       <c r="D25">
         <v>0.04761948056317067</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.508942228776867</v>
+        <v>0.5089422287768883</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.461393986638811</v>
+        <v>3.461393986638839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.277737725571967</v>
+        <v>1.262384235707799</v>
       </c>
       <c r="C2">
-        <v>0.5478112058698059</v>
+        <v>0.5387202383942906</v>
       </c>
       <c r="D2">
-        <v>0.04514718993697997</v>
+        <v>0.04788046827417958</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.4436936328635</v>
+        <v>2.456155595531072</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007829188794257607</v>
       </c>
       <c r="H2">
-        <v>1.472526056732946</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.484768622040946</v>
       </c>
       <c r="J2">
-        <v>0.4217951854988939</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4161302657482508</v>
       </c>
       <c r="L2">
-        <v>2.793345311521151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.786450170239533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.103229491660784</v>
+        <v>1.089615179111661</v>
       </c>
       <c r="C3">
-        <v>0.4717772369744466</v>
+        <v>0.4637155996358615</v>
       </c>
       <c r="D3">
-        <v>0.04362913351941344</v>
+        <v>0.04647395659704046</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.167316536940618</v>
+        <v>2.182917927862349</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007912818165148151</v>
       </c>
       <c r="H3">
-        <v>1.326474576414114</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.3404731614676</v>
       </c>
       <c r="J3">
-        <v>0.3638924314295622</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3588686134077932</v>
       </c>
       <c r="L3">
-        <v>2.369740432624781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.364152850452172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9972489024308686</v>
+        <v>0.9847150402007117</v>
       </c>
       <c r="C4">
-        <v>0.4257973171655465</v>
+        <v>0.4183721369871876</v>
       </c>
       <c r="D4">
-        <v>0.04275774933703147</v>
+        <v>0.04566991154098332</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.002407718249472</v>
+        <v>2.019920941774998</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007965235751689445</v>
       </c>
       <c r="H4">
-        <v>1.239635858418126</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.254700889023226</v>
       </c>
       <c r="J4">
-        <v>0.3287748735933036</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3241487869876494</v>
       </c>
       <c r="L4">
-        <v>2.120152997750878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.115292000223263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9543057325165591</v>
+        <v>0.9422159546356283</v>
       </c>
       <c r="C5">
-        <v>0.4072080380682621</v>
+        <v>0.4000437961699106</v>
       </c>
       <c r="D5">
-        <v>0.04241574706392726</v>
+        <v>0.04535514447276512</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.936256560651884</v>
+        <v>1.954547067473271</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007986889695402552</v>
       </c>
       <c r="H5">
-        <v>1.20487281748467</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.220370769955167</v>
       </c>
       <c r="J5">
-        <v>0.3145553704167625</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3100926412249194</v>
       </c>
       <c r="L5">
-        <v>2.020612918533232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.016033114054764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9471884783599194</v>
+        <v>0.9351726865756689</v>
       </c>
       <c r="C6">
-        <v>0.4041294270695346</v>
+        <v>0.3970086214547166</v>
       </c>
       <c r="D6">
-        <v>0.04235969027795861</v>
+        <v>0.04530359982724264</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.925331479573344</v>
+        <v>1.943751002338132</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007990503698451003</v>
       </c>
       <c r="H6">
-        <v>1.19913573152607</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.214705504195365</v>
       </c>
       <c r="J6">
-        <v>0.312199237498973</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3077637177223949</v>
       </c>
       <c r="L6">
-        <v>2.00420293753352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.999669032015404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9966688266064807</v>
+        <v>0.9841409373137537</v>
       </c>
       <c r="C7">
-        <v>0.4255460536747933</v>
+        <v>0.4181243856479853</v>
       </c>
       <c r="D7">
-        <v>0.04275308663203248</v>
+        <v>0.04566561687267523</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.001511518093281</v>
+        <v>2.019035228995818</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007965526566732583</v>
       </c>
       <c r="H7">
-        <v>1.239164614331543</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.254235488632986</v>
       </c>
       <c r="J7">
-        <v>0.3285827581152958</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3239588691162609</v>
       </c>
       <c r="L7">
-        <v>2.11880235454791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.113945204660368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.217294069113876</v>
+        <v>1.2025380314264</v>
       </c>
       <c r="C8">
-        <v>0.5214297009286213</v>
+        <v>0.5126930178882958</v>
       </c>
       <c r="D8">
-        <v>0.04460976594365462</v>
+        <v>0.0473817977173816</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.347307338748848</v>
+        <v>2.360856460700177</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007857818125292994</v>
       </c>
       <c r="H8">
-        <v>1.421521778076468</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.43437310089621</v>
       </c>
       <c r="J8">
-        <v>0.4017285808184994</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3962840222084978</v>
       </c>
       <c r="L8">
-        <v>2.644794662396805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.638369117286913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.661651373432449</v>
+        <v>1.6425940882406</v>
       </c>
       <c r="C9">
-        <v>0.7165495689124839</v>
+        <v>0.7052453876221705</v>
       </c>
       <c r="D9">
-        <v>0.04884810364831083</v>
+        <v>0.05133091031476766</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.071362417193939</v>
+        <v>3.076873687067177</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007653785726944115</v>
       </c>
       <c r="H9">
-        <v>1.806272246868744</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.814606714150074</v>
       </c>
       <c r="J9">
-        <v>0.5495325885056062</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5424983637964402</v>
       </c>
       <c r="L9">
-        <v>3.78625005975988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.775875765952946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.999041989671014</v>
+        <v>1.976816340388808</v>
       </c>
       <c r="C10">
-        <v>0.8666191072949232</v>
+        <v>0.853395608130171</v>
       </c>
       <c r="D10">
-        <v>0.05252439696278088</v>
+        <v>0.05477812031827511</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.64449402795546</v>
+        <v>3.643741169781293</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007506065836205805</v>
       </c>
       <c r="H10">
-        <v>2.113191166955815</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.117979980806211</v>
       </c>
       <c r="J10">
-        <v>0.6622175214325523</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6540067982001929</v>
       </c>
       <c r="L10">
-        <v>4.740814353912938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.72643952711519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.15584896352064</v>
+        <v>2.132167604439843</v>
       </c>
       <c r="C11">
-        <v>0.9369847993049234</v>
+        <v>0.9228697788394413</v>
       </c>
       <c r="D11">
-        <v>0.05437815823143666</v>
+        <v>0.05652143241928798</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.917889152921617</v>
+        <v>3.914142496893732</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007438691805459197</v>
       </c>
       <c r="H11">
-        <v>2.260274281578077</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.263360362923635</v>
       </c>
       <c r="J11">
-        <v>0.7147374005026776</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.7059841553156545</v>
       </c>
       <c r="L11">
-        <v>5.216312659210459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.199655011269357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.215793265750136</v>
+        <v>2.191557468011467</v>
       </c>
       <c r="C12">
-        <v>0.9639955843530856</v>
+        <v>0.9495391444641257</v>
       </c>
       <c r="D12">
-        <v>0.05511285644463015</v>
+        <v>0.05721309471154257</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.023636652644939</v>
+        <v>4.018727750379099</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007413082020426682</v>
       </c>
       <c r="H12">
-        <v>2.317280116898388</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.319703674367716</v>
       </c>
       <c r="J12">
-        <v>0.7348413151467952</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.7258810513277894</v>
       </c>
       <c r="L12">
-        <v>5.404266595037086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.386645883703949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.202856608788125</v>
+        <v>2.178740379337455</v>
       </c>
       <c r="C13">
-        <v>0.95816098424757</v>
+        <v>0.9437782663796099</v>
       </c>
       <c r="D13">
-        <v>0.05495304454976235</v>
+        <v>0.05706261146193725</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.000756013953435</v>
+        <v>3.996098846620612</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007418603205762153</v>
       </c>
       <c r="H13">
-        <v>2.304940303500771</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.307507431781275</v>
       </c>
       <c r="J13">
-        <v>0.7305013833023821</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.7215857837730084</v>
       </c>
       <c r="L13">
-        <v>5.363397178940176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.34598896515773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.160768774325675</v>
+        <v>2.137041871721379</v>
       </c>
       <c r="C14">
-        <v>0.9391992821915665</v>
+        <v>0.9250562570978502</v>
       </c>
       <c r="D14">
-        <v>0.05443790178043173</v>
+        <v>0.05657766184958035</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.92654198756901</v>
+        <v>3.922700339720365</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007436587292866158</v>
       </c>
       <c r="H14">
-        <v>2.264936401581735</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.267968365922442</v>
       </c>
       <c r="J14">
-        <v>0.7163868234762489</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7076165815661497</v>
       </c>
       <c r="L14">
-        <v>5.231603738916476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.214869080284899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.135065020809748</v>
+        <v>2.111576142653234</v>
       </c>
       <c r="C15">
-        <v>0.9276342542281384</v>
+        <v>0.9136375114550219</v>
       </c>
       <c r="D15">
-        <v>0.05412685176357712</v>
+        <v>0.05628493708393734</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.881386057815462</v>
+        <v>3.87803994222196</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007447588009558358</v>
       </c>
       <c r="H15">
-        <v>2.240611251982799</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.243925460074607</v>
       </c>
       <c r="J15">
-        <v>0.7077704498675885</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6990890217108685</v>
       </c>
       <c r="L15">
-        <v>5.151974684019152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.135638518621988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.988868453303184</v>
+        <v>1.966737553135005</v>
       </c>
       <c r="C16">
-        <v>0.8620679294345734</v>
+        <v>0.8489022280006395</v>
       </c>
       <c r="D16">
-        <v>0.05240742619876926</v>
+        <v>0.05466821762602336</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.626913875182254</v>
+        <v>3.626353155138645</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007510459676304976</v>
       </c>
       <c r="H16">
-        <v>2.103748000262826</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.108645908567453</v>
       </c>
       <c r="J16">
-        <v>0.6588134341609191</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6506379751936961</v>
       </c>
       <c r="L16">
-        <v>4.710721967801348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.696484627150213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.900092805875545</v>
+        <v>1.87879050752818</v>
       </c>
       <c r="C17">
-        <v>0.822424311606369</v>
+        <v>0.8097629499529262</v>
       </c>
       <c r="D17">
-        <v>0.05140325823848002</v>
+        <v>0.05372526616505979</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.474304297393644</v>
+        <v>3.475410576583499</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007548939321679737</v>
       </c>
       <c r="H17">
-        <v>2.021849328215424</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.027692830212573</v>
       </c>
       <c r="J17">
-        <v>0.6291257850640761</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.6212584919277688</v>
       </c>
       <c r="L17">
-        <v>4.451788926250117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.438702364693768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.849338833055384</v>
+        <v>1.828511840582422</v>
       </c>
       <c r="C18">
-        <v>0.799815534938034</v>
+        <v>0.7874426055050492</v>
       </c>
       <c r="D18">
-        <v>0.05084227786356621</v>
+        <v>0.05319893235099471</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.387692136635565</v>
+        <v>3.389744240241043</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007571060466133314</v>
       </c>
       <c r="H18">
-        <v>1.975429137210952</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.981808429722619</v>
       </c>
       <c r="J18">
-        <v>0.6121664163731495</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.604475717645748</v>
       </c>
       <c r="L18">
-        <v>4.306592744624794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.294127083048167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.832204694495829</v>
+        <v>1.811538445367944</v>
       </c>
       <c r="C19">
-        <v>0.7921920110264296</v>
+        <v>0.7799164881900822</v>
       </c>
       <c r="D19">
-        <v>0.05065501481841039</v>
+        <v>0.05302331120760329</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.358556159919686</v>
+        <v>3.360926471593103</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007578550238553997</v>
       </c>
       <c r="H19">
-        <v>1.95982353750847</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.96638297215577</v>
       </c>
       <c r="J19">
-        <v>0.6064432272345215</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5988122228939403</v>
       </c>
       <c r="L19">
-        <v>4.258024144640302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.245762404376819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909510703324059</v>
+        <v>1.88812033979363</v>
       </c>
       <c r="C20">
-        <v>0.8266240239126716</v>
+        <v>0.8139091529974962</v>
       </c>
       <c r="D20">
-        <v>0.05150839417144226</v>
+        <v>0.05382394577122795</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.490426708463161</v>
+        <v>3.491356925799579</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007544844727869204</v>
       </c>
       <c r="H20">
-        <v>2.030495078776525</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.036238787886717</v>
       </c>
       <c r="J20">
-        <v>0.6322738229177105</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.624373796332037</v>
       </c>
       <c r="L20">
-        <v>4.47895414346813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.465749505547393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.173114934520981</v>
+        <v>2.149273772867048</v>
       </c>
       <c r="C21">
-        <v>0.9447583371822361</v>
+        <v>0.9305450227554957</v>
       </c>
       <c r="D21">
-        <v>0.05458826139323492</v>
+        <v>0.05671918893052208</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.948276599100609</v>
+        <v>3.944196264366838</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007431308225418487</v>
       </c>
       <c r="H21">
-        <v>2.276648833818271</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.279544792904247</v>
       </c>
       <c r="J21">
-        <v>0.7205264583445725</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.7117135686567124</v>
       </c>
       <c r="L21">
-        <v>5.270081222365647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.253151741312053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.348733212681225</v>
+        <v>2.323271195868784</v>
       </c>
       <c r="C22">
-        <v>1.024129812855222</v>
+        <v>1.008914176561944</v>
       </c>
       <c r="D22">
-        <v>0.05679646014789341</v>
+        <v>0.05879942719885634</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.260700654449295</v>
+        <v>4.253173282970351</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007356492249118413</v>
       </c>
       <c r="H22">
-        <v>2.445308683282121</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.446236422681707</v>
       </c>
       <c r="J22">
-        <v>0.7794814971896571</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.7700625219375681</v>
       </c>
       <c r="L22">
-        <v>5.834644957485665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.814676593548654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.254666643896201</v>
+        <v>2.230071825513363</v>
       </c>
       <c r="C23">
-        <v>0.9815460371848985</v>
+        <v>0.9668679197211532</v>
       </c>
       <c r="D23">
-        <v>0.05559730038915234</v>
+        <v>0.05766936603992434</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.09258916276471</v>
+        <v>4.086920677415293</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000739650843977202</v>
       </c>
       <c r="H23">
-        <v>2.354485220956335</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.356475322960065</v>
       </c>
       <c r="J23">
-        <v>0.7478866865549563</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.7387922454925402</v>
       </c>
       <c r="L23">
-        <v>5.528122570871247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.509847119577202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.905251992734179</v>
+        <v>1.883901446715669</v>
       </c>
       <c r="C24">
-        <v>0.8247247690150061</v>
+        <v>0.8120340942845417</v>
       </c>
       <c r="D24">
-        <v>0.05146081182816431</v>
+        <v>0.05377928401701126</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.483134290493552</v>
+        <v>3.484144143951568</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007546695892311193</v>
       </c>
       <c r="H24">
-        <v>2.026584282286592</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.032373131854357</v>
       </c>
       <c r="J24">
-        <v>0.6308502597625107</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6229650337190051</v>
       </c>
       <c r="L24">
-        <v>4.46666146133748</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.453510330356195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.539819516317806</v>
+        <v>1.521923339561397</v>
       </c>
       <c r="C25">
-        <v>0.66277742215334</v>
+        <v>0.6521703251555664</v>
       </c>
       <c r="D25">
-        <v>0.04761948056317067</v>
+        <v>0.05018272926235312</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.869340038345541</v>
+        <v>2.877070642259497</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007708414801168573</v>
       </c>
       <c r="H25">
-        <v>1.698565198453437</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.708150490878992</v>
       </c>
       <c r="J25">
-        <v>0.5089422287768883</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5023379002117991</v>
       </c>
       <c r="L25">
-        <v>3.461393986638839</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.452227184813495</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.262384235707799</v>
+        <v>1.304549939711961</v>
       </c>
       <c r="C2">
-        <v>0.5387202383942906</v>
+        <v>0.2396397264771224</v>
       </c>
       <c r="D2">
-        <v>0.04788046827417958</v>
+        <v>0.03486717216871327</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.456155595531072</v>
+        <v>2.109201491742084</v>
       </c>
       <c r="G2">
-        <v>0.0007829188794257607</v>
+        <v>0.0007850903976780454</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.484768622040946</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4161302657482508</v>
+        <v>0.3346385436726891</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.786450170239533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.778660227769834</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.694879690682839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.089615179111661</v>
+        <v>1.126696205440197</v>
       </c>
       <c r="C3">
-        <v>0.4637155996358615</v>
+        <v>0.2111481164701701</v>
       </c>
       <c r="D3">
-        <v>0.04647395659704046</v>
+        <v>0.03475510408319593</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.182917927862349</v>
+        <v>1.880054011509472</v>
       </c>
       <c r="G3">
-        <v>0.0007912818165148151</v>
+        <v>0.0007927679626235085</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.3404731614676</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3588686134077932</v>
+        <v>0.2895707633658304</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.364152850452172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.35842332232707</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.51723783832665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9847150402007117</v>
+        <v>1.018607967905723</v>
       </c>
       <c r="C4">
-        <v>0.4183721369871876</v>
+        <v>0.1937134120871491</v>
       </c>
       <c r="D4">
-        <v>0.04566991154098332</v>
+        <v>0.03471596879699135</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.019920941774998</v>
+        <v>1.743358076061952</v>
       </c>
       <c r="G4">
-        <v>0.0007965235751689445</v>
+        <v>0.0007975841077710333</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.254700889023226</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3241487869876494</v>
+        <v>0.2621388621584444</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.115292000223263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.110617328827175</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.411424351324882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9422159546356283</v>
+        <v>0.9747965504536182</v>
       </c>
       <c r="C5">
-        <v>0.4000437961699106</v>
+        <v>0.186617908869863</v>
       </c>
       <c r="D5">
-        <v>0.04535514447276512</v>
+        <v>0.03470640394304425</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.954547067473271</v>
+        <v>1.688537352871137</v>
       </c>
       <c r="G5">
-        <v>0.0007986889695402552</v>
+        <v>0.0007995745331443871</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.220370769955167</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3100926412249194</v>
+        <v>0.2510096670502904</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.016033114054764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.011747670349607</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.369024727657035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9351726865756689</v>
+        <v>0.9675346685087618</v>
       </c>
       <c r="C6">
-        <v>0.3970086214547166</v>
+        <v>0.1854401073746317</v>
       </c>
       <c r="D6">
-        <v>0.04530359982724264</v>
+        <v>0.03470517229853343</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.943751002338132</v>
+        <v>1.679484463203806</v>
       </c>
       <c r="G6">
-        <v>0.0007990503698451003</v>
+        <v>0.000799906779172969</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.214705504195365</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3077637177223949</v>
+        <v>0.2491643628298235</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.999669032015404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.995446067421227</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.362025089466329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9841409373137537</v>
+        <v>1.018016215483499</v>
       </c>
       <c r="C7">
-        <v>0.4181243856479853</v>
+        <v>0.1936176893063362</v>
       </c>
       <c r="D7">
-        <v>0.04566561687267523</v>
+        <v>0.03471581528190626</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.019035228995818</v>
+        <v>1.742615317981361</v>
       </c>
       <c r="G7">
-        <v>0.0007965526566732583</v>
+        <v>0.0007976108361516527</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.254235488632986</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3239588691162609</v>
+        <v>0.2619885831250883</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.113945204660368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.109275933037779</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.410849742908127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.2025380314264</v>
+        <v>1.242966490650986</v>
       </c>
       <c r="C8">
-        <v>0.5126930178882958</v>
+        <v>0.2298000501547079</v>
       </c>
       <c r="D8">
-        <v>0.0473817977173816</v>
+        <v>0.03482167620654764</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.360856460700177</v>
+        <v>2.029283197845572</v>
       </c>
       <c r="G8">
-        <v>0.0007857818125292994</v>
+        <v>0.0007877178010511809</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.43437310089621</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3962840222084978</v>
+        <v>0.3190426316521524</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.638369117286913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.631341643112478</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.632889101164039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.6425940882406</v>
+        <v>1.695164841528737</v>
       </c>
       <c r="C9">
-        <v>0.7052453876221705</v>
+        <v>0.3014904596374919</v>
       </c>
       <c r="D9">
-        <v>0.05133091031476766</v>
+        <v>0.03532241459680563</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.076873687067177</v>
+        <v>2.629496566811468</v>
       </c>
       <c r="G9">
-        <v>0.0007653785726944115</v>
+        <v>0.0007690152263515474</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.814606714150074</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5424983637964402</v>
+        <v>0.4333607561175867</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.775875765952946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.761778160157789</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.099303227087177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.976816340388808</v>
+        <v>2.037568171662826</v>
       </c>
       <c r="C10">
-        <v>0.853395608130171</v>
+        <v>0.3549882745750494</v>
       </c>
       <c r="D10">
-        <v>0.05477812031827511</v>
+        <v>0.03596816788484603</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.643741169781293</v>
+        <v>3.104024345418338</v>
       </c>
       <c r="G10">
-        <v>0.0007506065836205805</v>
+        <v>0.0007555099906708405</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.117979980806211</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6540067982001929</v>
+        <v>0.5196418463560804</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.72643952711519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.703990244187963</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.469314853992913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.132167604439843</v>
+        <v>2.196394289663147</v>
       </c>
       <c r="C11">
-        <v>0.9228697788394413</v>
+        <v>0.3795827519471686</v>
       </c>
       <c r="D11">
-        <v>0.05652143241928798</v>
+        <v>0.03635198404903406</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.914142496893732</v>
+        <v>3.330083588470529</v>
       </c>
       <c r="G11">
-        <v>0.0007438691805459197</v>
+        <v>0.0007493616606228577</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.263360362923635</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7059841553156545</v>
+        <v>0.5595856799262791</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.199655011269357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.172056349097062</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.645951311427496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.191557468011467</v>
+        <v>2.25705573630762</v>
       </c>
       <c r="C12">
-        <v>0.9495391444641257</v>
+        <v>0.3889381370321985</v>
       </c>
       <c r="D12">
-        <v>0.05721309471154257</v>
+        <v>0.0365136109919959</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.018727750379099</v>
+        <v>3.417458586978938</v>
       </c>
       <c r="G12">
-        <v>0.0007413082020426682</v>
+        <v>0.0007470266210622415</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.319703674367716</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7258810513277894</v>
+        <v>0.574828252141323</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.386645883703949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.356808029279449</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.714286391601306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.178740379337455</v>
+        <v>2.243966911938401</v>
       </c>
       <c r="C13">
-        <v>0.9437782663796099</v>
+        <v>0.3869213646540288</v>
       </c>
       <c r="D13">
-        <v>0.05706261146193725</v>
+        <v>0.0364780141650165</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.996098846620612</v>
+        <v>3.398556407758889</v>
       </c>
       <c r="G13">
-        <v>0.0007418603205762153</v>
+        <v>0.0007475299321309723</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.307507431781275</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7215857837730084</v>
+        <v>0.5715400268305828</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.34598896515773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.316648295479055</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.699500232837792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.137041871721379</v>
+        <v>2.201374112975884</v>
       </c>
       <c r="C14">
-        <v>0.9250562570978502</v>
+        <v>0.3803515628414118</v>
       </c>
       <c r="D14">
-        <v>0.05657766184958035</v>
+        <v>0.03636493237880956</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.922700339720365</v>
+        <v>3.337234481271111</v>
       </c>
       <c r="G14">
-        <v>0.0007436587292866158</v>
+        <v>0.0007491697328743893</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.267968365922442</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7076165815661497</v>
+        <v>0.5608372579463818</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.214869080284899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.187092720719832</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.651542638622885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.111576142653234</v>
+        <v>2.175354556704946</v>
       </c>
       <c r="C15">
-        <v>0.9136375114550219</v>
+        <v>0.3763329492550156</v>
       </c>
       <c r="D15">
-        <v>0.05628493708393734</v>
+        <v>0.03629790198275273</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.87803994222196</v>
+        <v>3.299913958770048</v>
       </c>
       <c r="G15">
-        <v>0.0007447588009558358</v>
+        <v>0.0007501730622964447</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.243925460074607</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6990890217108685</v>
+        <v>0.5542972124104963</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.135638518621988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.108779010606867</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.622364066302438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.966737553135005</v>
+        <v>2.02725660772353</v>
       </c>
       <c r="C16">
-        <v>0.8489022280006395</v>
+        <v>0.3533866180844853</v>
       </c>
       <c r="D16">
-        <v>0.05466821762602336</v>
+        <v>0.03594516168901052</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.626353155138645</v>
+        <v>3.089480558805576</v>
       </c>
       <c r="G16">
-        <v>0.0007510459676304976</v>
+        <v>0.0007559112165654858</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.108645908567453</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6506379751936961</v>
+        <v>0.5170468207959118</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.696484627150213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.674337614544314</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.457958767527799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.87879050752818</v>
+        <v>1.93724100911507</v>
       </c>
       <c r="C17">
-        <v>0.8097629499529262</v>
+        <v>0.3393798681039186</v>
       </c>
       <c r="D17">
-        <v>0.05372526616505979</v>
+        <v>0.03575393792570836</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.475410576583499</v>
+        <v>2.96319445695886</v>
       </c>
       <c r="G17">
-        <v>0.0007548939321679737</v>
+        <v>0.0007594263055515073</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.027692830212573</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6212584919277688</v>
+        <v>0.4943845034362937</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.438702364693768</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.419046426634708</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.359393046633144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.828511840582422</v>
+        <v>1.885749944412566</v>
       </c>
       <c r="C18">
-        <v>0.7874426055050492</v>
+        <v>0.3313476172606755</v>
       </c>
       <c r="D18">
-        <v>0.05319893235099471</v>
+        <v>0.03565218508988011</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.389744240241043</v>
+        <v>2.891495947652999</v>
       </c>
       <c r="G18">
-        <v>0.0007571060466133314</v>
+        <v>0.0007614480901261333</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.981808429722619</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.604475717645748</v>
+        <v>0.4814140057030372</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.294127083048167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.275784519103553</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.303465642923371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.811538445367944</v>
+        <v>1.868362413368033</v>
       </c>
       <c r="C19">
-        <v>0.7799164881900822</v>
+        <v>0.3286319919770193</v>
       </c>
       <c r="D19">
-        <v>0.05302331120760329</v>
+        <v>0.03561905989878866</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.360926471593103</v>
+        <v>2.867372904544339</v>
       </c>
       <c r="G19">
-        <v>0.0007578550238553997</v>
+        <v>0.0007621327928086785</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.96638297215577</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5988122228939403</v>
+        <v>0.4770329522475052</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.245762404376819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.227846203281388</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.2846542096636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.88812033979363</v>
+        <v>1.946793443019203</v>
       </c>
       <c r="C20">
-        <v>0.8139091529974962</v>
+        <v>0.3408683793009288</v>
       </c>
       <c r="D20">
-        <v>0.05382394577122795</v>
+        <v>0.03577342049621279</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.491356925799579</v>
+        <v>2.976538757813643</v>
       </c>
       <c r="G20">
-        <v>0.0007544844727869204</v>
+        <v>0.0007590521577337953</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.036238787886717</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.624373796332037</v>
+        <v>0.4967901739251559</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.465749505547393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.44584129197105</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.369804722071009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.149273772867048</v>
+        <v>2.213869967030746</v>
       </c>
       <c r="C21">
-        <v>0.9305450227554957</v>
+        <v>0.3822801044759956</v>
       </c>
       <c r="D21">
-        <v>0.05671918893052208</v>
+        <v>0.03639767403684857</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.944196264366838</v>
+        <v>3.35519535949598</v>
       </c>
       <c r="G21">
-        <v>0.0007431308225418487</v>
+        <v>0.0007486883256292802</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.279544792904247</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7117135686567124</v>
+        <v>0.5639776160356789</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.253151741312053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.224924765773835</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.665587391386296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.323271195868784</v>
+        <v>2.391475471574608</v>
       </c>
       <c r="C22">
-        <v>1.008914176561944</v>
+        <v>0.4095902459062302</v>
       </c>
       <c r="D22">
-        <v>0.05879942719885634</v>
+        <v>0.03690288294223976</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.253173282970351</v>
+        <v>3.613192029908589</v>
       </c>
       <c r="G22">
-        <v>0.0007356492249118413</v>
+        <v>0.0007418710910807429</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.446236422681707</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7700625219375681</v>
+        <v>0.6085767831458924</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.814676593548654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.779239180355106</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.867494475124829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.230071825513363</v>
+        <v>2.296377694631531</v>
       </c>
       <c r="C23">
-        <v>0.9668679197211532</v>
+        <v>0.3949908834962343</v>
       </c>
       <c r="D23">
-        <v>0.05766936603992434</v>
+        <v>0.03662297975505879</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.086920677415293</v>
+        <v>3.474410720248329</v>
       </c>
       <c r="G23">
-        <v>0.000739650843977202</v>
+        <v>0.0007455161007099578</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.356475322960065</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7387922454925402</v>
+        <v>0.5847047220338411</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.509847119577202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.478466784625653</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.75884687405923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.883901446715669</v>
+        <v>1.942473983226904</v>
       </c>
       <c r="C24">
-        <v>0.8120340942845417</v>
+        <v>0.3401953602009797</v>
       </c>
       <c r="D24">
-        <v>0.05377928401701126</v>
+        <v>0.03576458717229869</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.484144143951568</v>
+        <v>2.970503002426966</v>
       </c>
       <c r="G24">
-        <v>0.0007546695892311193</v>
+        <v>0.0007592213066631634</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.032373131854357</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6229650337190051</v>
+        <v>0.4957023897628829</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.453510330356195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.433716534117067</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.365095318832573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.521923339561397</v>
+        <v>1.571313665501549</v>
       </c>
       <c r="C25">
-        <v>0.6521703251555664</v>
+        <v>0.2819785707014972</v>
       </c>
       <c r="D25">
-        <v>0.05018272926235312</v>
+        <v>0.03514654120095884</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.877070642259497</v>
+        <v>2.462079276124939</v>
       </c>
       <c r="G25">
-        <v>0.0007708414801168573</v>
+        <v>0.0007740175592846143</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.708150490878992</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5023379002117991</v>
+        <v>0.4020945260908277</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.452227184813495</v>
+        <v>3.44043770850044</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.969018047330323</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.304549939711961</v>
+        <v>1.024844529178665</v>
       </c>
       <c r="C2">
-        <v>0.2396397264771224</v>
+        <v>0.112715866743045</v>
       </c>
       <c r="D2">
-        <v>0.03486717216871327</v>
+        <v>0.1035058084852523</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.109201491742084</v>
+        <v>2.619697433920393</v>
       </c>
       <c r="G2">
-        <v>0.0007850903976780454</v>
+        <v>0.0008359319123029698</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.957136162373573</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3346385436726891</v>
+        <v>1.010202621749983</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3918908050475949</v>
       </c>
       <c r="M2">
-        <v>2.778660227769834</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.694879690682839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.126696205440197</v>
+        <v>0.8897754533988689</v>
       </c>
       <c r="C3">
-        <v>0.2111481164701701</v>
+        <v>0.09786345691702536</v>
       </c>
       <c r="D3">
-        <v>0.03475510408319593</v>
+        <v>0.1031122635866772</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.880054011509472</v>
+        <v>2.409365446752744</v>
       </c>
       <c r="G3">
-        <v>0.0007927679626235085</v>
+        <v>0.0008430421710612115</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.825994619027455</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2895707633658304</v>
+        <v>0.8728891335996991</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3454386203151643</v>
       </c>
       <c r="M3">
-        <v>2.35842332232707</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.51723783832665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.018607967905723</v>
+        <v>0.8082472418925306</v>
       </c>
       <c r="C4">
-        <v>0.1937134120871491</v>
+        <v>0.08884977463954158</v>
       </c>
       <c r="D4">
-        <v>0.03471596879699135</v>
+        <v>0.1028738838054899</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.743358076061952</v>
+        <v>2.283348330314254</v>
       </c>
       <c r="G4">
-        <v>0.0007975841077710333</v>
+        <v>0.0008475318938133138</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.747580689061664</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2621388621584444</v>
+        <v>0.7898942972456666</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3174840756158517</v>
       </c>
       <c r="M4">
-        <v>2.110617328827175</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.411424351324882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9747965504536182</v>
+        <v>0.7753371790012693</v>
       </c>
       <c r="C5">
-        <v>0.186617908869863</v>
+        <v>0.08519827735412377</v>
       </c>
       <c r="D5">
-        <v>0.03470640394304425</v>
+        <v>0.1027772533296201</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.688537352871137</v>
+        <v>2.232708830223118</v>
       </c>
       <c r="G5">
-        <v>0.0007995745331443871</v>
+        <v>0.0008493937790615292</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.716109199143759</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2510096670502904</v>
+        <v>0.756362820872738</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3062201865415943</v>
       </c>
       <c r="M5">
-        <v>2.011747670349607</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.369024727657035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9675346685087618</v>
+        <v>0.7698903024662513</v>
       </c>
       <c r="C6">
-        <v>0.1854401073746317</v>
+        <v>0.08459311939380143</v>
       </c>
       <c r="D6">
-        <v>0.03470517229853343</v>
+        <v>0.1027612302093566</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.679484463203806</v>
+        <v>2.22434123694886</v>
       </c>
       <c r="G6">
-        <v>0.000799906779172969</v>
+        <v>0.0008497049247776372</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.710911227728303</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2491643628298235</v>
+        <v>0.7508112835806742</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3043571323118073</v>
       </c>
       <c r="M6">
-        <v>1.995446067421227</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.362025089466329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.018016215483499</v>
+        <v>0.8078021871551755</v>
       </c>
       <c r="C7">
-        <v>0.1936176893063362</v>
+        <v>0.08880044786131691</v>
       </c>
       <c r="D7">
-        <v>0.03471581528190626</v>
+        <v>0.1028725789339866</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.742615317981361</v>
+        <v>2.282662592096173</v>
       </c>
       <c r="G7">
-        <v>0.0007976108361516527</v>
+        <v>0.0008475568717433977</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.747154358514848</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2619885831250883</v>
+        <v>0.7894409599489904</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.317331668191386</v>
       </c>
       <c r="M7">
-        <v>2.109275933037779</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.410849742908127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.242966490650986</v>
+        <v>0.9779561772422767</v>
       </c>
       <c r="C8">
-        <v>0.2298000501547079</v>
+        <v>0.1075697058339529</v>
       </c>
       <c r="D8">
-        <v>0.03482167620654764</v>
+        <v>0.1033692451009962</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.029283197845572</v>
+        <v>2.546480235780649</v>
       </c>
       <c r="G8">
-        <v>0.0007877178010511809</v>
+        <v>0.0008383584845831094</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.911451696037219</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3190426316521524</v>
+        <v>0.9625578369777088</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3757470744359921</v>
       </c>
       <c r="M8">
-        <v>2.631341643112478</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.632889101164039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.695164841528737</v>
+        <v>1.32474999637958</v>
       </c>
       <c r="C9">
-        <v>0.3014904596374919</v>
+        <v>0.1454610282933686</v>
       </c>
       <c r="D9">
-        <v>0.03532241459680563</v>
+        <v>0.1043842650091094</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.629496566811468</v>
+        <v>3.0922389385521</v>
       </c>
       <c r="G9">
-        <v>0.0007690152263515474</v>
+        <v>0.000821250052587293</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.252682470145572</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4333607561175867</v>
+        <v>1.314533955490475</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4955332302120325</v>
       </c>
       <c r="M9">
-        <v>3.761778160157789</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.099303227087177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.037568171662826</v>
+        <v>1.59058660230923</v>
       </c>
       <c r="C10">
-        <v>0.3549882745750494</v>
+        <v>0.1743420081018883</v>
       </c>
       <c r="D10">
-        <v>0.03596816788484603</v>
+        <v>0.1051784851270341</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.104024345418338</v>
+        <v>3.516050455264661</v>
       </c>
       <c r="G10">
-        <v>0.0007555099906708405</v>
+        <v>0.0008091644076041002</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.518556272582003</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5196418463560804</v>
+        <v>1.583912916125399</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5878567195080109</v>
       </c>
       <c r="M10">
-        <v>4.703990244187963</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.469314853992913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.196394289663147</v>
+        <v>1.714687970429651</v>
       </c>
       <c r="C11">
-        <v>0.3795827519471686</v>
+        <v>0.1878037392814775</v>
       </c>
       <c r="D11">
-        <v>0.03635198404903406</v>
+        <v>0.1055562913480159</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.330083588470529</v>
+        <v>3.715196018821189</v>
       </c>
       <c r="G11">
-        <v>0.0007493616606228577</v>
+        <v>0.0008037508690700889</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.643694926762635</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5595856799262791</v>
+        <v>1.709599146911188</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6310766535120536</v>
       </c>
       <c r="M11">
-        <v>5.172056349097062</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.645951311427496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.25705573630762</v>
+        <v>1.762209761713223</v>
       </c>
       <c r="C12">
-        <v>0.3889381370321985</v>
+        <v>0.192957043043549</v>
       </c>
       <c r="D12">
-        <v>0.0365136109919959</v>
+        <v>0.105702301240747</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.417458586978938</v>
+        <v>3.791649906704976</v>
       </c>
       <c r="G12">
-        <v>0.0007470266210622415</v>
+        <v>0.0008017111191638006</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.691767723105684</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.574828252141323</v>
+        <v>1.757720302489616</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6476449694828403</v>
       </c>
       <c r="M12">
-        <v>5.356808029279449</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.714286391601306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.243966911938401</v>
+        <v>1.751950419521876</v>
       </c>
       <c r="C13">
-        <v>0.3869213646540288</v>
+        <v>0.1918445556147645</v>
       </c>
       <c r="D13">
-        <v>0.0364780141650165</v>
+        <v>0.1056707146963802</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.398556407758889</v>
+        <v>3.77513566209953</v>
       </c>
       <c r="G13">
-        <v>0.0007475299321309723</v>
+        <v>0.0008021499924227588</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.681382481517787</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5715400268305828</v>
+        <v>1.747331858505305</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6440672594609964</v>
       </c>
       <c r="M13">
-        <v>5.316648295479055</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.699500232837792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.201374112975884</v>
+        <v>1.718586611671981</v>
       </c>
       <c r="C14">
-        <v>0.3803515628414118</v>
+        <v>0.1882265335635367</v>
       </c>
       <c r="D14">
-        <v>0.03636493237880956</v>
+        <v>0.1055682411805279</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.337234481271111</v>
+        <v>3.72146426081386</v>
       </c>
       <c r="G14">
-        <v>0.0007491697328743893</v>
+        <v>0.0008035828639988652</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.647635659245083</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5608372579463818</v>
+        <v>1.713547095076621</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6324355326257063</v>
       </c>
       <c r="M14">
-        <v>5.187092720719832</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.651542638622885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.175354556704946</v>
+        <v>1.69822123951036</v>
       </c>
       <c r="C15">
-        <v>0.3763329492550156</v>
+        <v>0.1860179250989091</v>
       </c>
       <c r="D15">
-        <v>0.03629790198275273</v>
+        <v>0.1055058745204462</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.299913958770048</v>
+        <v>3.688728702756691</v>
       </c>
       <c r="G15">
-        <v>0.0007501730622964447</v>
+        <v>0.0008044618132617313</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.627056641824538</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5542972124104963</v>
+        <v>1.692923870247284</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.625337880346521</v>
       </c>
       <c r="M15">
-        <v>5.108779010606867</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.622364066302438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.02725660772353</v>
+        <v>1.582546010606478</v>
       </c>
       <c r="C16">
-        <v>0.3533866180844853</v>
+        <v>0.1734695181521744</v>
       </c>
       <c r="D16">
-        <v>0.03594516168901052</v>
+        <v>0.1051541738860422</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.089480558805576</v>
+        <v>3.503174297011356</v>
       </c>
       <c r="G16">
-        <v>0.0007559112165654858</v>
+        <v>0.0008095197349143916</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.510469381779657</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5170468207959118</v>
+        <v>1.57576846464525</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5850589511381372</v>
       </c>
       <c r="M16">
-        <v>4.674337614544314</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.457958767527799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.93724100911507</v>
+        <v>1.512443457398348</v>
       </c>
       <c r="C17">
-        <v>0.3393798681039186</v>
+        <v>0.1658605094923473</v>
       </c>
       <c r="D17">
-        <v>0.03575393792570836</v>
+        <v>0.1049430290949473</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.96319445695886</v>
+        <v>3.391056541028803</v>
       </c>
       <c r="G17">
-        <v>0.0007594263055515073</v>
+        <v>0.0008126429159461842</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.440076511945662</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4943845034362937</v>
+        <v>1.504753089803131</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5606797594162174</v>
       </c>
       <c r="M17">
-        <v>4.419046426634708</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.359393046633144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.885749944412566</v>
+        <v>1.472416076190029</v>
       </c>
       <c r="C18">
-        <v>0.3313476172606755</v>
+        <v>0.1615138656975574</v>
       </c>
       <c r="D18">
-        <v>0.03565218508988011</v>
+        <v>0.1048231004696198</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.891495947652999</v>
+        <v>3.327158744392506</v>
       </c>
       <c r="G18">
-        <v>0.0007614480901261333</v>
+        <v>0.000814447343668529</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.399977444412585</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4814140057030372</v>
+        <v>1.464197971375825</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5467707387948622</v>
       </c>
       <c r="M18">
-        <v>4.275784519103553</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.303465642923371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.868362413368033</v>
+        <v>1.458911899284089</v>
       </c>
       <c r="C19">
-        <v>0.3286319919770193</v>
+        <v>0.1600470346568699</v>
       </c>
       <c r="D19">
-        <v>0.03561905989878866</v>
+        <v>0.1047827389066533</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.867372904544339</v>
+        <v>3.305621584079546</v>
       </c>
       <c r="G19">
-        <v>0.0007621327928086785</v>
+        <v>0.0008150597298197174</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.386465029959382</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4770329522475052</v>
+        <v>1.450514561410898</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5420800806332551</v>
       </c>
       <c r="M19">
-        <v>4.227846203281388</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.2846542096636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.946793443019203</v>
+        <v>1.519875100051905</v>
       </c>
       <c r="C20">
-        <v>0.3408683793009288</v>
+        <v>0.1666673488796846</v>
       </c>
       <c r="D20">
-        <v>0.03577342049621279</v>
+        <v>0.1049653449914203</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.976538757813643</v>
+        <v>3.402929783789148</v>
       </c>
       <c r="G20">
-        <v>0.0007590521577337953</v>
+        <v>0.0008123096271210547</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.447529116676037</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4967901739251559</v>
+        <v>1.512282163379695</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5632630646859837</v>
       </c>
       <c r="M20">
-        <v>4.44584129197105</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.369804722071009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.213869967030746</v>
+        <v>1.72837145155512</v>
       </c>
       <c r="C21">
-        <v>0.3822801044759956</v>
+        <v>0.1892876463421231</v>
       </c>
       <c r="D21">
-        <v>0.03639767403684857</v>
+        <v>0.1055982553833772</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.35519535949598</v>
+        <v>3.737199484244115</v>
       </c>
       <c r="G21">
-        <v>0.0007486883256292802</v>
+        <v>0.000803161733001698</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.657528609242036</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5639776160356789</v>
+        <v>1.723455574858235</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6358463507993264</v>
       </c>
       <c r="M21">
-        <v>5.224924765773835</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.665587391386296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.391475471574608</v>
+        <v>1.867748489706429</v>
       </c>
       <c r="C22">
-        <v>0.4095902459062302</v>
+        <v>0.2044006666836822</v>
       </c>
       <c r="D22">
-        <v>0.03690288294223976</v>
+        <v>0.1060293693730401</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.613192029908589</v>
+        <v>3.961806615407227</v>
       </c>
       <c r="G22">
-        <v>0.0007418710910807429</v>
+        <v>0.000797241717079336</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.798816316440963</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6085767831458924</v>
+        <v>1.864579369675113</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6844746881869952</v>
       </c>
       <c r="M22">
-        <v>5.779239180355106</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.867494475124829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.296377694631531</v>
+        <v>1.793049806818232</v>
       </c>
       <c r="C23">
-        <v>0.3949908834962343</v>
+        <v>0.1963011261163672</v>
       </c>
       <c r="D23">
-        <v>0.03662297975505879</v>
+        <v>0.1057974702446316</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.474410720248329</v>
+        <v>3.841321265218824</v>
       </c>
       <c r="G23">
-        <v>0.0007455161007099578</v>
+        <v>0.0008003966485166422</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.723008856332001</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5847047220338411</v>
+        <v>1.788947550031935</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6584024142095046</v>
       </c>
       <c r="M23">
-        <v>5.478466784625653</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.75884687405923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.942473983226904</v>
+        <v>1.516514401543418</v>
       </c>
       <c r="C24">
-        <v>0.3401953602009797</v>
+        <v>0.1663024906372641</v>
       </c>
       <c r="D24">
-        <v>0.03576458717229869</v>
+        <v>0.1049552514653698</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.970503002426966</v>
+        <v>3.397560155386088</v>
       </c>
       <c r="G24">
-        <v>0.0007592213066631634</v>
+        <v>0.0008124602792803145</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.444158645477557</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4957023897628829</v>
+        <v>1.508877425743719</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5620948213438481</v>
       </c>
       <c r="M24">
-        <v>4.433716534117067</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.365095318832573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.571313665501549</v>
+        <v>1.229231687520837</v>
       </c>
       <c r="C25">
-        <v>0.2819785707014972</v>
+        <v>0.1350573557514849</v>
       </c>
       <c r="D25">
-        <v>0.03514654120095884</v>
+        <v>0.104103007196727</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.462079276124939</v>
+        <v>2.941016660008842</v>
       </c>
       <c r="G25">
-        <v>0.0007740175592846143</v>
+        <v>0.0008257869195873513</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.157984372637998</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4020945260908277</v>
+        <v>1.217669664156176</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4624578724085922</v>
       </c>
       <c r="M25">
-        <v>3.44043770850044</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.969018047330323</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.024844529178665</v>
+        <v>0.7571855626538309</v>
       </c>
       <c r="C2">
-        <v>0.112715866743045</v>
+        <v>0.03726687579720078</v>
       </c>
       <c r="D2">
-        <v>0.1035058084852523</v>
+        <v>0.1309344824700851</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.619697433920393</v>
+        <v>2.506004254945339</v>
       </c>
       <c r="G2">
-        <v>0.0008359319123029698</v>
+        <v>0.002551835714879697</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.957136162373573</v>
+        <v>2.074096297897299</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.010202621749983</v>
+        <v>0.5616931974663544</v>
       </c>
       <c r="L2">
-        <v>0.3918908050475949</v>
+        <v>0.3067429217273911</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8897754533988689</v>
+        <v>0.7295575982021205</v>
       </c>
       <c r="C3">
-        <v>0.09786345691702536</v>
+        <v>0.03284928380706731</v>
       </c>
       <c r="D3">
-        <v>0.1031122635866772</v>
+        <v>0.1302543244145014</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.409365446752744</v>
+        <v>2.451772369326889</v>
       </c>
       <c r="G3">
-        <v>0.0008430421710612115</v>
+        <v>0.002556147667515718</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.825994619027455</v>
+        <v>2.039805160593204</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8728891335996991</v>
+        <v>0.5306056821829372</v>
       </c>
       <c r="L3">
-        <v>0.3454386203151643</v>
+        <v>0.2961505466043661</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8082472418925306</v>
+        <v>0.7131966578589868</v>
       </c>
       <c r="C4">
-        <v>0.08884977463954158</v>
+        <v>0.03012514075778938</v>
       </c>
       <c r="D4">
-        <v>0.1028738838054899</v>
+        <v>0.1298242402744876</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.283348330314254</v>
+        <v>2.419280197422609</v>
       </c>
       <c r="G4">
-        <v>0.0008475318938133138</v>
+        <v>0.002558934494636622</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.747580689061664</v>
+        <v>2.019294305946659</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7898942972456666</v>
+        <v>0.5119651676941714</v>
       </c>
       <c r="L4">
-        <v>0.3174840756158517</v>
+        <v>0.2898317989800319</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7753371790012693</v>
+        <v>0.7066809380389429</v>
       </c>
       <c r="C5">
-        <v>0.08519827735412377</v>
+        <v>0.02901199767622131</v>
       </c>
       <c r="D5">
-        <v>0.1027772533296201</v>
+        <v>0.1296458163119105</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.232708830223118</v>
+        <v>2.4062413926641</v>
       </c>
       <c r="G5">
-        <v>0.0008493937790615292</v>
+        <v>0.002560105285129671</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.716109199143759</v>
+        <v>2.011072234402135</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.756362820872738</v>
+        <v>0.5044812670954002</v>
       </c>
       <c r="L5">
-        <v>0.3062201865415943</v>
+        <v>0.2873032706030045</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7698903024662513</v>
+        <v>0.7056081559613006</v>
       </c>
       <c r="C6">
-        <v>0.08459311939380143</v>
+        <v>0.02882697548768931</v>
       </c>
       <c r="D6">
-        <v>0.1027612302093566</v>
+        <v>0.1296159974296636</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.22434123694886</v>
+        <v>2.404088488355413</v>
       </c>
       <c r="G6">
-        <v>0.0008497049247776372</v>
+        <v>0.002560301819378515</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.710911227728303</v>
+        <v>2.009715180364438</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7508112835806742</v>
+        <v>0.5032453448828846</v>
       </c>
       <c r="L6">
-        <v>0.3043571323118073</v>
+        <v>0.2868862104209313</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8078021871551755</v>
+        <v>0.7131081712661569</v>
       </c>
       <c r="C7">
-        <v>0.08880044786131691</v>
+        <v>0.03011014091079289</v>
       </c>
       <c r="D7">
-        <v>0.1028725789339866</v>
+        <v>0.1298218468220611</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.282662592096173</v>
+        <v>2.419103534597184</v>
       </c>
       <c r="G7">
-        <v>0.0008475568717433977</v>
+        <v>0.002558950141855792</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.747154358514848</v>
+        <v>2.019182869190189</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7894409599489904</v>
+        <v>0.5118637829522186</v>
       </c>
       <c r="L7">
-        <v>0.317331668191386</v>
+        <v>0.2897975105822184</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9779561772422767</v>
+        <v>0.7475342865280936</v>
       </c>
       <c r="C8">
-        <v>0.1075697058339529</v>
+        <v>0.03574607107786676</v>
       </c>
       <c r="D8">
-        <v>0.1033692451009962</v>
+        <v>0.1307025346961765</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.546480235780649</v>
+        <v>2.487137247429985</v>
       </c>
       <c r="G8">
-        <v>0.0008383584845831094</v>
+        <v>0.002553293640214947</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.911451696037219</v>
+        <v>2.06215946255719</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9625578369777088</v>
+        <v>0.5508812244738976</v>
       </c>
       <c r="L8">
-        <v>0.3757470744359921</v>
+        <v>0.303052200111253</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.32474999637958</v>
+        <v>0.819834711385738</v>
       </c>
       <c r="C9">
-        <v>0.1454610282933686</v>
+        <v>0.0467093999661472</v>
       </c>
       <c r="D9">
-        <v>0.1043842650091094</v>
+        <v>0.1323319017321438</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.0922389385521</v>
+        <v>2.626992621845403</v>
       </c>
       <c r="G9">
-        <v>0.000821250052587293</v>
+        <v>0.002543301044789079</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.252682470145572</v>
+        <v>2.150782656054901</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.314533955490475</v>
+        <v>0.6309593420217823</v>
       </c>
       <c r="L9">
-        <v>0.4955332302120325</v>
+        <v>0.3305193967052986</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.59058660230923</v>
+        <v>0.8758939321584762</v>
       </c>
       <c r="C10">
-        <v>0.1743420081018883</v>
+        <v>0.05471674873302845</v>
       </c>
       <c r="D10">
-        <v>0.1051784851270341</v>
+        <v>0.1334712140938024</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.516050455264661</v>
+        <v>2.733742741454421</v>
       </c>
       <c r="G10">
-        <v>0.0008091644076041002</v>
+        <v>0.002536622565502184</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.518556272582003</v>
+        <v>2.218592216791009</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.583912916125399</v>
+        <v>0.6919951778439213</v>
       </c>
       <c r="L10">
-        <v>0.5878567195080109</v>
+        <v>0.3516106244862272</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.714687970429651</v>
+        <v>0.9020399474405565</v>
       </c>
       <c r="C11">
-        <v>0.1878037392814775</v>
+        <v>0.05835069097737744</v>
       </c>
       <c r="D11">
-        <v>0.1055562913480159</v>
+        <v>0.1339773451447357</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.715196018821189</v>
+        <v>2.783190534666716</v>
       </c>
       <c r="G11">
-        <v>0.0008037508690700889</v>
+        <v>0.00253372675992439</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.643694926762635</v>
+        <v>2.250037349478575</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.709599146911188</v>
+        <v>0.7202470601459368</v>
       </c>
       <c r="L11">
-        <v>0.6310766535120536</v>
+        <v>0.36140617841302</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.762209761713223</v>
+        <v>0.912033677128079</v>
       </c>
       <c r="C12">
-        <v>0.192957043043549</v>
+        <v>0.05972563325198621</v>
       </c>
       <c r="D12">
-        <v>0.105702301240747</v>
+        <v>0.1341672856529215</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.791649906704976</v>
+        <v>2.802043679710664</v>
       </c>
       <c r="G12">
-        <v>0.0008017111191638006</v>
+        <v>0.002532650532246517</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.691767723105684</v>
+        <v>2.262031549461767</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.757720302489616</v>
+        <v>0.7310156676190331</v>
       </c>
       <c r="L12">
-        <v>0.6476449694828403</v>
+        <v>0.365144584592457</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.751950419521876</v>
+        <v>0.9098772189709337</v>
       </c>
       <c r="C13">
-        <v>0.1918445556147645</v>
+        <v>0.05942956466491012</v>
       </c>
       <c r="D13">
-        <v>0.1056707146963802</v>
+        <v>0.1341264546572454</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.77513566209953</v>
+        <v>2.797977596199672</v>
       </c>
       <c r="G13">
-        <v>0.0008021499924227588</v>
+        <v>0.002532881413709892</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.681382481517787</v>
+        <v>2.259444522474581</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.747331858505305</v>
+        <v>0.7286933269421922</v>
       </c>
       <c r="L13">
-        <v>0.6440672594609964</v>
+        <v>0.3643381581342169</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.718586611671981</v>
+        <v>0.9028602768982239</v>
       </c>
       <c r="C14">
-        <v>0.1882265335635367</v>
+        <v>0.05846383089397023</v>
       </c>
       <c r="D14">
-        <v>0.1055682411805279</v>
+        <v>0.133993005991961</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.72146426081386</v>
+        <v>2.784739017304048</v>
       </c>
       <c r="G14">
-        <v>0.0008035828639988652</v>
+        <v>0.002533637810803241</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.647635659245083</v>
+        <v>2.251022380350264</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.713547095076621</v>
+        <v>0.7211315906837399</v>
       </c>
       <c r="L14">
-        <v>0.6324355326257063</v>
+        <v>0.3617131565195564</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.69822123951036</v>
+        <v>0.8985742869789419</v>
       </c>
       <c r="C15">
-        <v>0.1860179250989091</v>
+        <v>0.05787214362341331</v>
       </c>
       <c r="D15">
-        <v>0.1055058745204462</v>
+        <v>0.1339110415758498</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.688728702756691</v>
+        <v>2.776646744107438</v>
       </c>
       <c r="G15">
-        <v>0.0008044618132617313</v>
+        <v>0.002534103773058519</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.627056641824538</v>
+        <v>2.245874871853545</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.692923870247284</v>
+        <v>0.716508964113757</v>
       </c>
       <c r="L15">
-        <v>0.625337880346521</v>
+        <v>0.3601090533833684</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.582546010606478</v>
+        <v>0.874198207009357</v>
       </c>
       <c r="C16">
-        <v>0.1734695181521744</v>
+        <v>0.05447909583973853</v>
       </c>
       <c r="D16">
-        <v>0.1051541738860422</v>
+        <v>0.1334378950631354</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.503174297011356</v>
+        <v>2.730529125013817</v>
       </c>
       <c r="G16">
-        <v>0.0008095197349143916</v>
+        <v>0.002536814666844065</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.510469381779657</v>
+        <v>2.216549291297682</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.57576846464525</v>
+        <v>0.6901586628053167</v>
       </c>
       <c r="L16">
-        <v>0.5850589511381372</v>
+        <v>0.3509745188381146</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.512443457398348</v>
+        <v>0.8594094114892812</v>
       </c>
       <c r="C17">
-        <v>0.1658605094923473</v>
+        <v>0.05239542140273556</v>
       </c>
       <c r="D17">
-        <v>0.1049430290949473</v>
+        <v>0.1331445425481377</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.391056541028803</v>
+        <v>2.702465143992356</v>
       </c>
       <c r="G17">
-        <v>0.0008126429159461842</v>
+        <v>0.002538514074059796</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.440076511945662</v>
+        <v>2.198712633421366</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.504753089803131</v>
+        <v>0.674118383989935</v>
       </c>
       <c r="L17">
-        <v>0.5606797594162174</v>
+        <v>0.3454223642748104</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.472416076190029</v>
+        <v>0.8509639320782298</v>
       </c>
       <c r="C18">
-        <v>0.1615138656975574</v>
+        <v>0.05119612824202591</v>
       </c>
       <c r="D18">
-        <v>0.1048231004696198</v>
+        <v>0.1329746689505491</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.327158744392506</v>
+        <v>2.686406887295362</v>
       </c>
       <c r="G18">
-        <v>0.000814447343668529</v>
+        <v>0.002539504925489444</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.399977444412585</v>
+        <v>2.188509731930466</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.464197971375825</v>
+        <v>0.6649382016664731</v>
       </c>
       <c r="L18">
-        <v>0.5467707387948622</v>
+        <v>0.3422478274350027</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.458911899284089</v>
+        <v>0.8481148495863806</v>
       </c>
       <c r="C19">
-        <v>0.1600470346568699</v>
+        <v>0.05078992484565958</v>
       </c>
       <c r="D19">
-        <v>0.1047827389066533</v>
+        <v>0.1329169552065075</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.305621584079546</v>
+        <v>2.680984136437871</v>
       </c>
       <c r="G19">
-        <v>0.0008150597298197174</v>
+        <v>0.002539842714951339</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.386465029959382</v>
+        <v>2.185064851788866</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.450514561410898</v>
+        <v>0.661837800530634</v>
       </c>
       <c r="L19">
-        <v>0.5420800806332551</v>
+        <v>0.3411762286004318</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.519875100051905</v>
+        <v>0.8609774265695762</v>
       </c>
       <c r="C20">
-        <v>0.1666673488796846</v>
+        <v>0.05261731619015109</v>
       </c>
       <c r="D20">
-        <v>0.1049653449914203</v>
+        <v>0.1331758887340477</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.402929783789148</v>
+        <v>2.705443964738237</v>
       </c>
       <c r="G20">
-        <v>0.0008123096271210547</v>
+        <v>0.002538331783391798</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.447529116676037</v>
+        <v>2.200605547907983</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.512282163379695</v>
+        <v>0.6758211607914006</v>
       </c>
       <c r="L20">
-        <v>0.5632630646859837</v>
+        <v>0.3460114419612523</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.72837145155512</v>
+        <v>0.9049188031338531</v>
       </c>
       <c r="C21">
-        <v>0.1892876463421231</v>
+        <v>0.0587475208783701</v>
       </c>
       <c r="D21">
-        <v>0.1055982553833772</v>
+        <v>0.1340322495784889</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.737199484244115</v>
+        <v>2.788624019003493</v>
       </c>
       <c r="G21">
-        <v>0.000803161733001698</v>
+        <v>0.002533415087055524</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.657528609242036</v>
+        <v>2.253493812364724</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.723455574858235</v>
+        <v>0.7233507474454939</v>
       </c>
       <c r="L21">
-        <v>0.6358463507993264</v>
+        <v>0.3624833938561096</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.867748489706429</v>
+        <v>0.9341780199895311</v>
       </c>
       <c r="C22">
-        <v>0.2044006666836822</v>
+        <v>0.06274728691796838</v>
       </c>
       <c r="D22">
-        <v>0.1060293693730401</v>
+        <v>0.1345819156711272</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.961806615407227</v>
+        <v>2.843735445989267</v>
       </c>
       <c r="G22">
-        <v>0.000797241717079336</v>
+        <v>0.002530320312794519</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.798816316440963</v>
+        <v>2.288564458612001</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.864579369675113</v>
+        <v>0.7548235928182692</v>
       </c>
       <c r="L22">
-        <v>0.6844746881869952</v>
+        <v>0.3734181114922421</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.793049806818232</v>
+        <v>0.9185122767970313</v>
       </c>
       <c r="C23">
-        <v>0.1963011261163672</v>
+        <v>0.06061311759272314</v>
       </c>
       <c r="D23">
-        <v>0.1057974702446316</v>
+        <v>0.1342894562005057</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.841321265218824</v>
+        <v>2.81425267661038</v>
       </c>
       <c r="G23">
-        <v>0.0008003966485166422</v>
+        <v>0.002531961238249509</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.723008856332001</v>
+        <v>2.269800182512171</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.788947550031935</v>
+        <v>0.7379883733370605</v>
       </c>
       <c r="L23">
-        <v>0.6584024142095046</v>
+        <v>0.3675665076043799</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.516514401543418</v>
+        <v>0.8602683500510295</v>
       </c>
       <c r="C24">
-        <v>0.1663024906372641</v>
+        <v>0.05251700180376417</v>
       </c>
       <c r="D24">
-        <v>0.1049552514653698</v>
+        <v>0.1331617209294862</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.397560155386088</v>
+        <v>2.704097002893803</v>
       </c>
       <c r="G24">
-        <v>0.0008124602792803145</v>
+        <v>0.002538414153912577</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.444158645477557</v>
+        <v>2.199749600482861</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.508877425743719</v>
+        <v>0.6750512058840172</v>
       </c>
       <c r="L24">
-        <v>0.5620948213438481</v>
+        <v>0.3457450655328671</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.229231687520837</v>
+        <v>0.7997606573858036</v>
       </c>
       <c r="C25">
-        <v>0.1350573557514849</v>
+        <v>0.04375233937963685</v>
       </c>
       <c r="D25">
-        <v>0.104103007196727</v>
+        <v>0.1319013882480782</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.941016660008842</v>
+        <v>2.588461065421257</v>
       </c>
       <c r="G25">
-        <v>0.0008257869195873513</v>
+        <v>0.002545887331755091</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.157984372637998</v>
+        <v>2.126337435188816</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.217669664156176</v>
+        <v>0.6089114528705863</v>
       </c>
       <c r="L25">
-        <v>0.4624578724085922</v>
+        <v>0.3229296730726503</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7571855626538309</v>
+        <v>1.024844529178637</v>
       </c>
       <c r="C2">
-        <v>0.03726687579720078</v>
+        <v>0.1127158667432866</v>
       </c>
       <c r="D2">
-        <v>0.1309344824700851</v>
+        <v>0.1035058084852594</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.506004254945339</v>
+        <v>2.619697433920379</v>
       </c>
       <c r="G2">
-        <v>0.002551835714879697</v>
+        <v>0.0008359319123653643</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.074096297897299</v>
+        <v>1.957136162373587</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5616931974663544</v>
+        <v>1.010202621749983</v>
       </c>
       <c r="L2">
-        <v>0.3067429217273911</v>
+        <v>0.391890805047538</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7295575982021205</v>
+        <v>0.889775453398812</v>
       </c>
       <c r="C3">
-        <v>0.03284928380706731</v>
+        <v>0.09786345691702536</v>
       </c>
       <c r="D3">
-        <v>0.1302543244145014</v>
+        <v>0.1031122635866808</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.451772369326889</v>
+        <v>2.40936544675273</v>
       </c>
       <c r="G3">
-        <v>0.002556147667515718</v>
+        <v>0.0008430421710628179</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.039805160593204</v>
+        <v>1.825994619027455</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5306056821829372</v>
+        <v>0.8728891335996423</v>
       </c>
       <c r="L3">
-        <v>0.2961505466043661</v>
+        <v>0.3454386203151927</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7131966578589868</v>
+        <v>0.8082472418925875</v>
       </c>
       <c r="C4">
-        <v>0.03012514075778938</v>
+        <v>0.08884977463971211</v>
       </c>
       <c r="D4">
-        <v>0.1298242402744876</v>
+        <v>0.1028738838055787</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.419280197422609</v>
+        <v>2.283348330314254</v>
       </c>
       <c r="G4">
-        <v>0.002558934494636622</v>
+        <v>0.0008475318938088729</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.019294305946659</v>
+        <v>1.747580689061692</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5119651676941714</v>
+        <v>0.7898942972456666</v>
       </c>
       <c r="L4">
-        <v>0.2898317989800319</v>
+        <v>0.3174840756159085</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7066809380389429</v>
+        <v>0.7753371790009567</v>
       </c>
       <c r="C5">
-        <v>0.02901199767622131</v>
+        <v>0.0851982773538964</v>
       </c>
       <c r="D5">
-        <v>0.1296458163119105</v>
+        <v>0.1027772533296165</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.4062413926641</v>
+        <v>2.232708830223103</v>
       </c>
       <c r="G5">
-        <v>0.002560105285129671</v>
+        <v>0.0008493937791117079</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.011072234402135</v>
+        <v>1.716109199143773</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5044812670954002</v>
+        <v>0.7563628208727664</v>
       </c>
       <c r="L5">
-        <v>0.2873032706030045</v>
+        <v>0.3062201865414664</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7056081559613006</v>
+        <v>0.7698903024663082</v>
       </c>
       <c r="C6">
-        <v>0.02882697548768931</v>
+        <v>0.08459311939401459</v>
       </c>
       <c r="D6">
-        <v>0.1296159974296636</v>
+        <v>0.102761230209147</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.404088488355413</v>
+        <v>2.22434123694886</v>
       </c>
       <c r="G6">
-        <v>0.002560301819378515</v>
+        <v>0.0008497049247788307</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.009715180364438</v>
+        <v>1.710911227728303</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5032453448828846</v>
+        <v>0.7508112835805605</v>
       </c>
       <c r="L6">
-        <v>0.2868862104209313</v>
+        <v>0.3043571323118783</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7131081712661569</v>
+        <v>0.8078021871551186</v>
       </c>
       <c r="C7">
-        <v>0.03011014091079289</v>
+        <v>0.08880044786103269</v>
       </c>
       <c r="D7">
-        <v>0.1298218468220611</v>
+        <v>0.1028725789340754</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.419103534597184</v>
+        <v>2.28266259209623</v>
       </c>
       <c r="G7">
-        <v>0.002558950141855792</v>
+        <v>0.0008475568717401673</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.019182869190189</v>
+        <v>1.747154358514877</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5118637829522186</v>
+        <v>0.7894409599490473</v>
       </c>
       <c r="L7">
-        <v>0.2897975105822184</v>
+        <v>0.3173316681912581</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7475342865280936</v>
+        <v>0.9779561772425041</v>
       </c>
       <c r="C8">
-        <v>0.03574607107786676</v>
+        <v>0.107569705833896</v>
       </c>
       <c r="D8">
-        <v>0.1307025346961765</v>
+        <v>0.1033692451010708</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.487137247429985</v>
+        <v>2.546480235780692</v>
       </c>
       <c r="G8">
-        <v>0.002553293640214947</v>
+        <v>0.0008383584845745417</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.06215946255719</v>
+        <v>1.911451696037247</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5508812244738976</v>
+        <v>0.9625578369777088</v>
       </c>
       <c r="L8">
-        <v>0.303052200111253</v>
+        <v>0.3757470744360063</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.819834711385738</v>
+        <v>1.324749996379524</v>
       </c>
       <c r="C9">
-        <v>0.0467093999661472</v>
+        <v>0.1454610282933544</v>
       </c>
       <c r="D9">
-        <v>0.1323319017321438</v>
+        <v>0.1043842650091271</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.626992621845403</v>
+        <v>3.092238938552129</v>
       </c>
       <c r="G9">
-        <v>0.002543301044789079</v>
+        <v>0.0008212500526470491</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.150782656054901</v>
+        <v>2.252682470145572</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6309593420217823</v>
+        <v>1.31453395549056</v>
       </c>
       <c r="L9">
-        <v>0.3305193967052986</v>
+        <v>0.4955332302121178</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8758939321584762</v>
+        <v>1.59058660230906</v>
       </c>
       <c r="C10">
-        <v>0.05471674873302845</v>
+        <v>0.1743420081013909</v>
       </c>
       <c r="D10">
-        <v>0.1334712140938024</v>
+        <v>0.1051784851269346</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.733742741454421</v>
+        <v>3.516050455264718</v>
       </c>
       <c r="G10">
-        <v>0.002536622565502184</v>
+        <v>0.0008091644076735802</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.218592216791009</v>
+        <v>2.518556272582032</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6919951778439213</v>
+        <v>1.583912916125399</v>
       </c>
       <c r="L10">
-        <v>0.3516106244862272</v>
+        <v>0.5878567195081388</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9020399474405565</v>
+        <v>1.714687970429566</v>
       </c>
       <c r="C11">
-        <v>0.05835069097737744</v>
+        <v>0.1878037392816481</v>
       </c>
       <c r="D11">
-        <v>0.1339773451447357</v>
+        <v>0.1055562913482007</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.783190534666716</v>
+        <v>3.715196018821217</v>
       </c>
       <c r="G11">
-        <v>0.00253372675992439</v>
+        <v>0.0008037508691297442</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.250037349478575</v>
+        <v>2.643694926762677</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7202470601459368</v>
+        <v>1.70959914691116</v>
       </c>
       <c r="L11">
-        <v>0.36140617841302</v>
+        <v>0.631076653512153</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.912033677128079</v>
+        <v>1.762209761713308</v>
       </c>
       <c r="C12">
-        <v>0.05972563325198621</v>
+        <v>0.1929570430438332</v>
       </c>
       <c r="D12">
-        <v>0.1341672856529215</v>
+        <v>0.1057023012405054</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.802043679710664</v>
+        <v>3.791649906704947</v>
       </c>
       <c r="G12">
-        <v>0.002532650532246517</v>
+        <v>0.0008017111191471244</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.262031549461767</v>
+        <v>2.691767723105698</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7310156676190331</v>
+        <v>1.757720302489417</v>
       </c>
       <c r="L12">
-        <v>0.365144584592457</v>
+        <v>0.6476449694828403</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9098772189709337</v>
+        <v>1.751950419521791</v>
       </c>
       <c r="C13">
-        <v>0.05942956466491012</v>
+        <v>0.1918445556152477</v>
       </c>
       <c r="D13">
-        <v>0.1341264546572454</v>
+        <v>0.1056707146964015</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.797977596199672</v>
+        <v>3.77513566209953</v>
       </c>
       <c r="G13">
-        <v>0.002532881413709892</v>
+        <v>0.0008021499924827872</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.259444522474581</v>
+        <v>2.681382481517801</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7286933269421922</v>
+        <v>1.747331858505305</v>
       </c>
       <c r="L13">
-        <v>0.3643381581342169</v>
+        <v>0.6440672594610959</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9028602768982239</v>
+        <v>1.718586611671867</v>
       </c>
       <c r="C14">
-        <v>0.05846383089397023</v>
+        <v>0.1882265335630251</v>
       </c>
       <c r="D14">
-        <v>0.133993005991961</v>
+        <v>0.1055682411804995</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.784739017304048</v>
+        <v>3.72146426081386</v>
       </c>
       <c r="G14">
-        <v>0.002533637810803241</v>
+        <v>0.0008035828639237673</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.251022380350264</v>
+        <v>2.647635659245083</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7211315906837399</v>
+        <v>1.713547095076592</v>
       </c>
       <c r="L14">
-        <v>0.3617131565195564</v>
+        <v>0.6324355326257631</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8985742869789419</v>
+        <v>1.698221239510389</v>
       </c>
       <c r="C15">
-        <v>0.05787214362341331</v>
+        <v>0.1860179250989376</v>
       </c>
       <c r="D15">
-        <v>0.1339110415758498</v>
+        <v>0.1055058745203254</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.776646744107438</v>
+        <v>3.688728702756691</v>
       </c>
       <c r="G15">
-        <v>0.002534103773058519</v>
+        <v>0.0008044618133913367</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.245874871853545</v>
+        <v>2.627056641824552</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.716508964113757</v>
+        <v>1.692923870247256</v>
       </c>
       <c r="L15">
-        <v>0.3601090533833684</v>
+        <v>0.6253378803466063</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.874198207009357</v>
+        <v>1.582546010606421</v>
       </c>
       <c r="C16">
-        <v>0.05447909583973853</v>
+        <v>0.1734695181519186</v>
       </c>
       <c r="D16">
-        <v>0.1334378950631354</v>
+        <v>0.1051541738861417</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.730529125013817</v>
+        <v>3.503174297011384</v>
       </c>
       <c r="G16">
-        <v>0.002536814666844065</v>
+        <v>0.0008095197348554764</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.216549291297682</v>
+        <v>2.510469381779671</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6901586628053167</v>
+        <v>1.575768464645279</v>
       </c>
       <c r="L16">
-        <v>0.3509745188381146</v>
+        <v>0.5850589511379241</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8594094114892812</v>
+        <v>1.512443457398263</v>
       </c>
       <c r="C17">
-        <v>0.05239542140273556</v>
+        <v>0.1658605094923473</v>
       </c>
       <c r="D17">
-        <v>0.1331445425481377</v>
+        <v>0.1049430290949331</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.702465143992356</v>
+        <v>3.391056541028803</v>
       </c>
       <c r="G17">
-        <v>0.002538514074059796</v>
+        <v>0.0008126429159336789</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.198712633421366</v>
+        <v>2.440076511945676</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.674118383989935</v>
+        <v>1.504753089803131</v>
       </c>
       <c r="L17">
-        <v>0.3454223642748104</v>
+        <v>0.5606797594163027</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8509639320782298</v>
+        <v>1.472416076190086</v>
       </c>
       <c r="C18">
-        <v>0.05119612824202591</v>
+        <v>0.1615138656973159</v>
       </c>
       <c r="D18">
-        <v>0.1329746689505491</v>
+        <v>0.1048231004696092</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.686406887295362</v>
+        <v>3.327158744392563</v>
       </c>
       <c r="G18">
-        <v>0.002539504925489444</v>
+        <v>0.0008144473437824479</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.188509731930466</v>
+        <v>2.399977444412599</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6649382016664731</v>
+        <v>1.464197971375938</v>
       </c>
       <c r="L18">
-        <v>0.3422478274350027</v>
+        <v>0.5467707387948479</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8481148495863806</v>
+        <v>1.458911899283976</v>
       </c>
       <c r="C19">
-        <v>0.05078992484565958</v>
+        <v>0.1600470346568699</v>
       </c>
       <c r="D19">
-        <v>0.1329169552065075</v>
+        <v>0.1047827389067599</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.680984136437871</v>
+        <v>3.305621584079489</v>
       </c>
       <c r="G19">
-        <v>0.002539842714951339</v>
+        <v>0.0008150597297483921</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.185064851788866</v>
+        <v>2.386465029959382</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.661837800530634</v>
+        <v>1.450514561410841</v>
       </c>
       <c r="L19">
-        <v>0.3411762286004318</v>
+        <v>0.5420800806333546</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8609774265695762</v>
+        <v>1.519875100051877</v>
       </c>
       <c r="C20">
-        <v>0.05261731619015109</v>
+        <v>0.1666673488796988</v>
       </c>
       <c r="D20">
-        <v>0.1331758887340477</v>
+        <v>0.1049653449914381</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.705443964738237</v>
+        <v>3.402929783789176</v>
       </c>
       <c r="G20">
-        <v>0.002538331783391798</v>
+        <v>0.0008123096271805963</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.200605547907983</v>
+        <v>2.447529116676051</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6758211607914006</v>
+        <v>1.51228216337978</v>
       </c>
       <c r="L20">
-        <v>0.3460114419612523</v>
+        <v>0.563263064686069</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9049188031338531</v>
+        <v>1.728371451555091</v>
       </c>
       <c r="C21">
-        <v>0.0587475208783701</v>
+        <v>0.1892876463423931</v>
       </c>
       <c r="D21">
-        <v>0.1340322495784889</v>
+        <v>0.1055982553835975</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.788624019003493</v>
+        <v>3.737199484244087</v>
       </c>
       <c r="G21">
-        <v>0.002533415087055524</v>
+        <v>0.0008031617328134092</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.253493812364724</v>
+        <v>2.657528609242021</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7233507474454939</v>
+        <v>1.723455574858178</v>
       </c>
       <c r="L21">
-        <v>0.3624833938561096</v>
+        <v>0.6358463507993122</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9341780199895311</v>
+        <v>1.867748489706599</v>
       </c>
       <c r="C22">
-        <v>0.06274728691796838</v>
+        <v>0.2044006666843927</v>
       </c>
       <c r="D22">
-        <v>0.1345819156711272</v>
+        <v>0.1060293693730827</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.843735445989267</v>
+        <v>3.961806615407255</v>
       </c>
       <c r="G22">
-        <v>0.002530320312794519</v>
+        <v>0.0007972417170566805</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.288564458612001</v>
+        <v>2.798816316440991</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7548235928182692</v>
+        <v>1.864579369675283</v>
       </c>
       <c r="L22">
-        <v>0.3734181114922421</v>
+        <v>0.6844746881869241</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9185122767970313</v>
+        <v>1.793049806818175</v>
       </c>
       <c r="C23">
-        <v>0.06061311759272314</v>
+        <v>0.1963011261164382</v>
       </c>
       <c r="D23">
-        <v>0.1342894562005057</v>
+        <v>0.1057974702447737</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.81425267661038</v>
+        <v>3.841321265218824</v>
       </c>
       <c r="G23">
-        <v>0.002531961238249509</v>
+        <v>0.0008003966485199623</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.269800182512171</v>
+        <v>2.723008856331973</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7379883733370605</v>
+        <v>1.788947550031793</v>
       </c>
       <c r="L23">
-        <v>0.3675665076043799</v>
+        <v>0.6584024142094478</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8602683500510295</v>
+        <v>1.516514401543276</v>
       </c>
       <c r="C24">
-        <v>0.05251700180376417</v>
+        <v>0.1663024906369799</v>
       </c>
       <c r="D24">
-        <v>0.1331617209294862</v>
+        <v>0.1049552514652135</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.704097002893803</v>
+        <v>3.397560155386088</v>
       </c>
       <c r="G24">
-        <v>0.002538414153912577</v>
+        <v>0.0008124602792202271</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.199749600482861</v>
+        <v>2.444158645477586</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6750512058840172</v>
+        <v>1.508877425743776</v>
       </c>
       <c r="L24">
-        <v>0.3457450655328671</v>
+        <v>0.5620948213439476</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7997606573858036</v>
+        <v>1.229231687520837</v>
       </c>
       <c r="C25">
-        <v>0.04375233937963685</v>
+        <v>0.1350573557519255</v>
       </c>
       <c r="D25">
-        <v>0.1319013882480782</v>
+        <v>0.1041030071968052</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.588461065421257</v>
+        <v>2.94101666000887</v>
       </c>
       <c r="G25">
-        <v>0.002545887331755091</v>
+        <v>0.0008257869195194001</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.126337435188816</v>
+        <v>2.157984372638026</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6089114528705863</v>
+        <v>1.217669664156119</v>
       </c>
       <c r="L25">
-        <v>0.3229296730726503</v>
+        <v>0.4624578724085495</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.024844529178637</v>
+        <v>0.5812874277042397</v>
       </c>
       <c r="C2">
-        <v>0.1127158667432866</v>
+        <v>0.1442203122478958</v>
       </c>
       <c r="D2">
-        <v>0.1035058084852594</v>
+        <v>0.08415823630750907</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.619697433920379</v>
+        <v>0.3549297190945921</v>
       </c>
       <c r="G2">
-        <v>0.0008359319123653643</v>
+        <v>0.2531966201636564</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000297067374894322</v>
       </c>
       <c r="I2">
-        <v>1.957136162373587</v>
+        <v>0.0006074221312353245</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2472396677871131</v>
       </c>
       <c r="K2">
-        <v>1.010202621749983</v>
+        <v>0.2498925173926736</v>
       </c>
       <c r="L2">
-        <v>0.391890805047538</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6559655765884003</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.521924761460696</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.002926022746138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.889775453398812</v>
+        <v>0.5115750260357714</v>
       </c>
       <c r="C3">
-        <v>0.09786345691702536</v>
+        <v>0.1349327608433057</v>
       </c>
       <c r="D3">
-        <v>0.1031122635866808</v>
+        <v>0.07461587026917016</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.40936544675273</v>
+        <v>0.338571262795341</v>
       </c>
       <c r="G3">
-        <v>0.0008430421710628179</v>
+        <v>0.2452435922812484</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.831479302578543E-06</v>
       </c>
       <c r="I3">
-        <v>1.825994619027455</v>
+        <v>0.0004225607598602465</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2474198305067716</v>
       </c>
       <c r="K3">
-        <v>0.8728891335996423</v>
+        <v>0.2515973888146945</v>
       </c>
       <c r="L3">
-        <v>0.3454386203151927</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5845604704700236</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.191747720875668</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9861880090616779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8082472418925875</v>
+        <v>0.4684577839161221</v>
       </c>
       <c r="C4">
-        <v>0.08884977463971211</v>
+        <v>0.1292712888950902</v>
       </c>
       <c r="D4">
-        <v>0.1028738838055787</v>
+        <v>0.06875832306898388</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.283348330314254</v>
+        <v>0.3288751144840987</v>
       </c>
       <c r="G4">
-        <v>0.0008475318938088729</v>
+        <v>0.2406308155348853</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.647955693850349E-05</v>
       </c>
       <c r="I4">
-        <v>1.747580689061692</v>
+        <v>0.0004428124908262276</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2477276476594881</v>
       </c>
       <c r="K4">
-        <v>0.7898942972456666</v>
+        <v>0.2528139101680118</v>
       </c>
       <c r="L4">
-        <v>0.3174840756159085</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5405669805903415</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.989648371729999</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.976890419244441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7753371790009567</v>
+        <v>0.4505509702031389</v>
       </c>
       <c r="C5">
-        <v>0.0851982773538964</v>
+        <v>0.1272173421970422</v>
       </c>
       <c r="D5">
-        <v>0.1027772533296165</v>
+        <v>0.06643806139484809</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.232708830223103</v>
+        <v>0.3246511911553469</v>
       </c>
       <c r="G5">
-        <v>0.0008493937791117079</v>
+        <v>0.2384806846779881</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001498090995952772</v>
       </c>
       <c r="I5">
-        <v>1.716109199143773</v>
+        <v>0.0005489452251343785</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2477244627123554</v>
       </c>
       <c r="K5">
-        <v>0.7563628208727664</v>
+        <v>0.2530540558653573</v>
       </c>
       <c r="L5">
-        <v>0.3062201865414664</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5228685663889507</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.907401201141212</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9722571388148538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7698903024663082</v>
+        <v>0.4472569264593318</v>
       </c>
       <c r="C6">
-        <v>0.08459311939401459</v>
+        <v>0.1271774769261711</v>
       </c>
       <c r="D6">
-        <v>0.102761230209147</v>
+        <v>0.06613474367836858</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.22434123694886</v>
+        <v>0.3235198032380993</v>
       </c>
       <c r="G6">
-        <v>0.0008497049247788307</v>
+        <v>0.2377185373733965</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0001671262949018981</v>
       </c>
       <c r="I6">
-        <v>1.710911227728303</v>
+        <v>0.0006564691900834418</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2475109325417009</v>
       </c>
       <c r="K6">
-        <v>0.7508112835805605</v>
+        <v>0.2527343622128431</v>
       </c>
       <c r="L6">
-        <v>0.3043571323118783</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.520256400218571</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.89373900530255</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9701825492579985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8078021871551186</v>
+        <v>0.4673513136243912</v>
       </c>
       <c r="C7">
-        <v>0.08880044786103269</v>
+        <v>0.1300665665635137</v>
       </c>
       <c r="D7">
-        <v>0.1028725789340754</v>
+        <v>0.06895162745472305</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.28266259209623</v>
+        <v>0.3276300732900808</v>
       </c>
       <c r="G7">
-        <v>0.0008475568717401673</v>
+        <v>0.2394849658256533</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.760022407492627E-05</v>
       </c>
       <c r="I7">
-        <v>1.747154358514877</v>
+        <v>0.0006695612372800142</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2471390110577829</v>
       </c>
       <c r="K7">
-        <v>0.7894409599490473</v>
+        <v>0.2518293682067618</v>
       </c>
       <c r="L7">
-        <v>0.3173316681912581</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5412310592808751</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.988507614585927</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9732270514390393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9779561772425041</v>
+        <v>0.5561619969829508</v>
       </c>
       <c r="C8">
-        <v>0.107569705833896</v>
+        <v>0.142111909154174</v>
       </c>
       <c r="D8">
-        <v>0.1033692451010708</v>
+        <v>0.08116777868298897</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.546480235780692</v>
+        <v>0.3476446519804526</v>
       </c>
       <c r="G8">
-        <v>0.0008383584845745417</v>
+        <v>0.2489218603012731</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001419574367989007</v>
       </c>
       <c r="I8">
-        <v>1.911451696037247</v>
+        <v>0.0007854725965019682</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2464872260959652</v>
       </c>
       <c r="K8">
-        <v>0.9625578369777088</v>
+        <v>0.2491459852838318</v>
       </c>
       <c r="L8">
-        <v>0.3757470744360063</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6325869878831867</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.40788067692705</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9922007817453107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.324749996379524</v>
+        <v>0.729371808930523</v>
       </c>
       <c r="C9">
-        <v>0.1454610282933544</v>
+        <v>0.164632183942274</v>
       </c>
       <c r="D9">
-        <v>0.1043842650091271</v>
+        <v>0.1047539802584225</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.092238938552129</v>
+        <v>0.391989424718524</v>
       </c>
       <c r="G9">
-        <v>0.0008212500526470491</v>
+        <v>0.2717443008265761</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002423109157033476</v>
       </c>
       <c r="I9">
-        <v>2.252682470145572</v>
+        <v>0.001815176491736459</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.247890746023316</v>
       </c>
       <c r="K9">
-        <v>1.31453395549056</v>
+        <v>0.2470608182540417</v>
       </c>
       <c r="L9">
-        <v>0.4955332302121178</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.8089737468289258</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.237251116188929</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.044124052427208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.59058660230906</v>
+        <v>0.8707337462181499</v>
       </c>
       <c r="C10">
-        <v>0.1743420081013909</v>
+        <v>0.1843479918791218</v>
       </c>
       <c r="D10">
-        <v>0.1051784851269346</v>
+        <v>0.123493256248608</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.516050455264718</v>
+        <v>0.420024069329429</v>
       </c>
       <c r="G10">
-        <v>0.0008091644076735802</v>
+        <v>0.2839683940669886</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.005242985937227829</v>
       </c>
       <c r="I10">
-        <v>2.518556272582032</v>
+        <v>0.003459712321974173</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2468432669427187</v>
       </c>
       <c r="K10">
-        <v>1.583912916125399</v>
+        <v>0.2418638374469495</v>
       </c>
       <c r="L10">
-        <v>0.5878567195081388</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.956192786200404</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.65191675307544</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.068253701279701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.714687970429566</v>
+        <v>1.081963023876369</v>
       </c>
       <c r="C11">
-        <v>0.1878037392816481</v>
+        <v>0.2181159789772806</v>
       </c>
       <c r="D11">
-        <v>0.1055562913482007</v>
+        <v>0.143639293453262</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.715196018821217</v>
+        <v>0.3799959526859311</v>
       </c>
       <c r="G11">
-        <v>0.0008037508691297442</v>
+        <v>0.2412625760778226</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02110478279529815</v>
       </c>
       <c r="I11">
-        <v>2.643694926762677</v>
+        <v>0.004427985279899183</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2214905542306198</v>
       </c>
       <c r="K11">
-        <v>1.70959914691116</v>
+        <v>0.2048047909735971</v>
       </c>
       <c r="L11">
-        <v>0.631076653512153</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.189539118186872</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.300905776083624</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9247941466050946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.762209761713308</v>
+        <v>1.2441277129046</v>
       </c>
       <c r="C12">
-        <v>0.1929570430438332</v>
+        <v>0.2437329262598809</v>
       </c>
       <c r="D12">
-        <v>0.1057023012405054</v>
+        <v>0.156918504611042</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.791649906704947</v>
+        <v>0.3435041910533556</v>
       </c>
       <c r="G12">
-        <v>0.0008017111191471244</v>
+        <v>0.2068880066670076</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05839056812605037</v>
       </c>
       <c r="I12">
-        <v>2.691767723105698</v>
+        <v>0.004553587478257626</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2021442500157562</v>
       </c>
       <c r="K12">
-        <v>1.757720302489417</v>
+        <v>0.1791518072268197</v>
       </c>
       <c r="L12">
-        <v>0.6476449694828403</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.368222283836218</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.350230962866988</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.8114747756022922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.751950419521791</v>
+        <v>1.374465352924432</v>
       </c>
       <c r="C13">
-        <v>0.1918445556152477</v>
+        <v>0.2654613458376787</v>
       </c>
       <c r="D13">
-        <v>0.1056707146964015</v>
+        <v>0.1658789629410649</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.77513566209953</v>
+        <v>0.3056001108407429</v>
       </c>
       <c r="G13">
-        <v>0.0008021499924827872</v>
+        <v>0.1749865408189564</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1134085919853476</v>
       </c>
       <c r="I13">
-        <v>2.681382481517801</v>
+        <v>0.004348448244572367</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1852408790419275</v>
       </c>
       <c r="K13">
-        <v>1.747331858505305</v>
+        <v>0.1589854576651195</v>
       </c>
       <c r="L13">
-        <v>0.6440672594610959</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.514212176332933</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6453016835348961</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.7084403199909559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.718586611671867</v>
+        <v>1.451210372183652</v>
       </c>
       <c r="C14">
-        <v>0.1882265335630251</v>
+        <v>0.2793965864474757</v>
       </c>
       <c r="D14">
-        <v>0.1055682411804995</v>
+        <v>0.1702668606114628</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.72146426081386</v>
+        <v>0.2784596273483544</v>
       </c>
       <c r="G14">
-        <v>0.0008035828639237673</v>
+        <v>0.1539353347915551</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625157046509003</v>
       </c>
       <c r="I14">
-        <v>2.647635659245083</v>
+        <v>0.004142401306579835</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1745325082865961</v>
       </c>
       <c r="K14">
-        <v>1.713547095076592</v>
+        <v>0.1475405278368047</v>
       </c>
       <c r="L14">
-        <v>0.6324355326257631</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.602321540424128</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2970044789889741</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.641349911677878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.698221239510389</v>
+        <v>1.460694877845896</v>
       </c>
       <c r="C15">
-        <v>0.1860179250989376</v>
+        <v>0.2821062864719437</v>
       </c>
       <c r="D15">
-        <v>0.1055058745203254</v>
+        <v>0.1704255700535384</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.688728702756691</v>
+        <v>0.271035002025215</v>
       </c>
       <c r="G15">
-        <v>0.0008044618133913367</v>
+        <v>0.1487334151829387</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749766859512931</v>
       </c>
       <c r="I15">
-        <v>2.627056641824552</v>
+        <v>0.00411924348570647</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1721688339778424</v>
       </c>
       <c r="K15">
-        <v>1.692923870247256</v>
+        <v>0.1453381157176796</v>
       </c>
       <c r="L15">
-        <v>0.6253378803466063</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.615085786178867</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2301411552785559</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.625345352161105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.582546010606421</v>
+        <v>1.367500157056412</v>
       </c>
       <c r="C16">
-        <v>0.1734695181519186</v>
+        <v>0.2688336654769898</v>
       </c>
       <c r="D16">
-        <v>0.1051541738861417</v>
+        <v>0.1602822402995514</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.503174297011384</v>
+        <v>0.2660633349661481</v>
       </c>
       <c r="G16">
-        <v>0.0008095197348554764</v>
+        <v>0.1493340650645081</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620780791449477</v>
       </c>
       <c r="I16">
-        <v>2.510469381779671</v>
+        <v>0.003519412532920541</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1755251568340341</v>
       </c>
       <c r="K16">
-        <v>1.575768464645279</v>
+        <v>0.1508655168419573</v>
       </c>
       <c r="L16">
-        <v>0.5850589511379241</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.516645409010778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2251194271384129</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6334740339477065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.512443457398263</v>
+        <v>1.255312424735081</v>
       </c>
       <c r="C17">
-        <v>0.1658605094923473</v>
+        <v>0.2512428197117487</v>
       </c>
       <c r="D17">
-        <v>0.1049430290949331</v>
+        <v>0.1502148824486085</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.391056541028803</v>
+        <v>0.2765832653355602</v>
       </c>
       <c r="G17">
-        <v>0.0008126429159336789</v>
+        <v>0.160804713501868</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241944651493725</v>
       </c>
       <c r="I17">
-        <v>2.440076511945676</v>
+        <v>0.003212367202681143</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1837708643032627</v>
       </c>
       <c r="K17">
-        <v>1.504753089803131</v>
+        <v>0.1610088522466455</v>
       </c>
       <c r="L17">
-        <v>0.5606797594163027</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.394417204497159</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3795988570312829</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6749453779790571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.472416076190086</v>
+        <v>1.119786010347013</v>
       </c>
       <c r="C18">
-        <v>0.1615138656973159</v>
+        <v>0.227962372078423</v>
       </c>
       <c r="D18">
-        <v>0.1048231004696092</v>
+        <v>0.1390514821847546</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.327158744392563</v>
+        <v>0.3031361742136127</v>
       </c>
       <c r="G18">
-        <v>0.0008144473437824479</v>
+        <v>0.1848310554014958</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07135143638094377</v>
       </c>
       <c r="I18">
-        <v>2.399977444412599</v>
+        <v>0.002848824401135985</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1979916732843847</v>
       </c>
       <c r="K18">
-        <v>1.464197971375938</v>
+        <v>0.1781948276969967</v>
       </c>
       <c r="L18">
-        <v>0.5467707387948479</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.242448434470759</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.813810212102247</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7555916856068166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.458911899283976</v>
+        <v>0.9797039971279844</v>
       </c>
       <c r="C19">
-        <v>0.1600470346568699</v>
+        <v>0.2056915774440569</v>
       </c>
       <c r="D19">
-        <v>0.1047827389067599</v>
+        <v>0.1286060274950813</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.305621584079489</v>
+        <v>0.3401388623089971</v>
       </c>
       <c r="G19">
-        <v>0.0008150597297483921</v>
+        <v>0.2177099889618006</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02660553194721871</v>
       </c>
       <c r="I19">
-        <v>2.386465029959382</v>
+        <v>0.00299571165987178</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2159566038346199</v>
       </c>
       <c r="K19">
-        <v>1.450514561410841</v>
+        <v>0.2009256860789179</v>
       </c>
       <c r="L19">
-        <v>0.5420800806333546</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.087568885690331</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.638210270580785</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8628927306925789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.519875100051877</v>
+        <v>0.8315498905354843</v>
       </c>
       <c r="C20">
-        <v>0.1666673488796988</v>
+        <v>0.1819787408832099</v>
       </c>
       <c r="D20">
-        <v>0.1049653449914381</v>
+        <v>0.1193434195248813</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.402929783789176</v>
+        <v>0.4085934322554294</v>
       </c>
       <c r="G20">
-        <v>0.0008123096271805963</v>
+        <v>0.276981566137998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004369545338906988</v>
       </c>
       <c r="I20">
-        <v>2.447529116676051</v>
+        <v>0.003682058640232633</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2451408999834115</v>
       </c>
       <c r="K20">
-        <v>1.51228216337978</v>
+        <v>0.2400187940421112</v>
       </c>
       <c r="L20">
-        <v>0.563263064686069</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.9212071021975419</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.534267888848149</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.049771180603187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.728371451555091</v>
+        <v>0.9153070883807004</v>
       </c>
       <c r="C21">
-        <v>0.1892876463423931</v>
+        <v>0.1929508445176253</v>
       </c>
       <c r="D21">
-        <v>0.1055982553835975</v>
+        <v>0.1316927261718348</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.737199484244087</v>
+        <v>0.4410651494966515</v>
       </c>
       <c r="G21">
-        <v>0.0008031617328134092</v>
+        <v>0.2964768802040822</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.007798285822128714</v>
       </c>
       <c r="I21">
-        <v>2.657528609242021</v>
+        <v>0.005146537816847818</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2495996023471534</v>
       </c>
       <c r="K21">
-        <v>1.723455574858178</v>
+        <v>0.2434650893064827</v>
       </c>
       <c r="L21">
-        <v>0.6358463507993122</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.006068046909803</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.167176324035253</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.100745766822442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.867748489706599</v>
+        <v>0.979053988653817</v>
       </c>
       <c r="C22">
-        <v>0.2044006666843927</v>
+        <v>0.2003187630587036</v>
       </c>
       <c r="D22">
-        <v>0.1060293693730827</v>
+        <v>0.1401122132956516</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.961806615407255</v>
+        <v>0.4612126404336152</v>
       </c>
       <c r="G22">
-        <v>0.0007972417170566805</v>
+        <v>0.3081589298618965</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01020752259963351</v>
       </c>
       <c r="I22">
-        <v>2.798816316440991</v>
+        <v>0.005984970752266783</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2520133592652698</v>
       </c>
       <c r="K22">
-        <v>1.864579369675283</v>
+        <v>0.2450596804647098</v>
       </c>
       <c r="L22">
-        <v>0.6844746881869241</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.069234413083564</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.480634139627412</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.130760662962189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.793049806818175</v>
+        <v>0.9461040682325859</v>
       </c>
       <c r="C23">
-        <v>0.1963011261164382</v>
+        <v>0.1953431144557101</v>
       </c>
       <c r="D23">
-        <v>0.1057974702447737</v>
+        <v>0.1353404440351369</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.841321265218824</v>
+        <v>0.4518008453835094</v>
       </c>
       <c r="G23">
-        <v>0.0008003966485199623</v>
+        <v>0.3031835142110566</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008886840571050214</v>
       </c>
       <c r="I23">
-        <v>2.723008856331973</v>
+        <v>0.005246705673685348</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2513735588953523</v>
       </c>
       <c r="K23">
-        <v>1.788947550031793</v>
+        <v>0.2453123230570711</v>
       </c>
       <c r="L23">
-        <v>0.6584024142094478</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.034405995850989</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.313158233516901</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.118769717988656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.516514401543276</v>
+        <v>0.8191274131610271</v>
       </c>
       <c r="C24">
-        <v>0.1663024906369799</v>
+        <v>0.1782926265447742</v>
       </c>
       <c r="D24">
-        <v>0.1049552514652135</v>
+        <v>0.1177434132245736</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.397560155386088</v>
+        <v>0.4150053774819753</v>
       </c>
       <c r="G24">
-        <v>0.0008124602792202271</v>
+        <v>0.2831338676127473</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004660044770203431</v>
       </c>
       <c r="I24">
-        <v>2.444158645477586</v>
+        <v>0.003242394360248646</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2483983392222697</v>
       </c>
       <c r="K24">
-        <v>1.508877425743776</v>
+        <v>0.2449752658310018</v>
       </c>
       <c r="L24">
-        <v>0.5620948213439476</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.9041269934517686</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.683394159703056</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.069632353036255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.229231687520837</v>
+        <v>0.6811946053494466</v>
       </c>
       <c r="C25">
-        <v>0.1350573557519255</v>
+        <v>0.1600303338206714</v>
       </c>
       <c r="D25">
-        <v>0.1041030071968052</v>
+        <v>0.09878144457686489</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.94101666000887</v>
+        <v>0.3775052266046117</v>
       </c>
       <c r="G25">
-        <v>0.0008257869195194001</v>
+        <v>0.2632916959486451</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001547225689890297</v>
       </c>
       <c r="I25">
-        <v>2.157984372638026</v>
+        <v>0.001791747874626104</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2462805976042262</v>
       </c>
       <c r="K25">
-        <v>1.217669664156119</v>
+        <v>0.2457091341416948</v>
       </c>
       <c r="L25">
-        <v>0.4624578724085495</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7630469617207893</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.011793142884414</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.022675340516969</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5812874277042397</v>
+        <v>0.5748263184247264</v>
       </c>
       <c r="C2">
-        <v>0.1442203122478958</v>
+        <v>0.1455082626064268</v>
       </c>
       <c r="D2">
-        <v>0.08415823630750907</v>
+        <v>0.08705292506532203</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3549297190945921</v>
+        <v>0.3368928416858381</v>
       </c>
       <c r="G2">
-        <v>0.2531966201636564</v>
+        <v>0.2186959470283725</v>
       </c>
       <c r="H2">
-        <v>0.000297067374894322</v>
+        <v>0.0003151898906703643</v>
       </c>
       <c r="I2">
-        <v>0.0006074221312353245</v>
+        <v>0.0008329013471586322</v>
       </c>
       <c r="J2">
-        <v>0.2472396677871131</v>
+        <v>0.2727847211538972</v>
       </c>
       <c r="K2">
-        <v>0.2498925173926736</v>
+        <v>0.2302908115883682</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.13180712182678</v>
       </c>
       <c r="M2">
-        <v>0.6559655765884003</v>
+        <v>0.05178294097010827</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.521924761460696</v>
+        <v>0.6677579454731273</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.002926022746138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.523308934920053</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9461352505667264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5115750260357714</v>
+        <v>0.5085436886890164</v>
       </c>
       <c r="C3">
-        <v>0.1349327608433057</v>
+        <v>0.1326606384175975</v>
       </c>
       <c r="D3">
-        <v>0.07461587026917016</v>
+        <v>0.07667181573303594</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.338571262795341</v>
+        <v>0.3234253302011751</v>
       </c>
       <c r="G3">
-        <v>0.2452435922812484</v>
+        <v>0.2136623864734943</v>
       </c>
       <c r="H3">
-        <v>2.831479302578543E-06</v>
+        <v>5.57942965695446E-06</v>
       </c>
       <c r="I3">
-        <v>0.0004225607598602465</v>
+        <v>0.0005682847019179427</v>
       </c>
       <c r="J3">
-        <v>0.2474198305067716</v>
+        <v>0.2723725030316615</v>
       </c>
       <c r="K3">
-        <v>0.2515973888146945</v>
+        <v>0.2336186922466723</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.136597791814534</v>
       </c>
       <c r="M3">
-        <v>0.5845604704700236</v>
+        <v>0.05084232470560934</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.191747720875668</v>
+        <v>0.5936429561555343</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9861880090616779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.193404148910957</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9370625572120161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4684577839161221</v>
+        <v>0.4674771424060538</v>
       </c>
       <c r="C4">
-        <v>0.1292712888950902</v>
+        <v>0.1248974935019191</v>
       </c>
       <c r="D4">
-        <v>0.06875832306898388</v>
+        <v>0.07031404716605039</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3288751144840987</v>
+        <v>0.3154183893096345</v>
       </c>
       <c r="G4">
-        <v>0.2406308155348853</v>
+        <v>0.2108343679573181</v>
       </c>
       <c r="H4">
-        <v>6.647955693850349E-05</v>
+        <v>5.435833784517285E-05</v>
       </c>
       <c r="I4">
-        <v>0.0004428124908262276</v>
+        <v>0.0005195195003082631</v>
       </c>
       <c r="J4">
-        <v>0.2477276476594881</v>
+        <v>0.2721852953573816</v>
       </c>
       <c r="K4">
-        <v>0.2528139101680118</v>
+        <v>0.2357707903811992</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1396720715083735</v>
       </c>
       <c r="M4">
-        <v>0.5405669805903415</v>
+        <v>0.05071876255982399</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.989648371729999</v>
+        <v>0.5480374320009389</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.976890419244441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.99143820410373</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9322195468643599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4505509702031389</v>
+        <v>0.450398266637535</v>
       </c>
       <c r="C5">
-        <v>0.1272173421970422</v>
+        <v>0.1220304242507382</v>
       </c>
       <c r="D5">
-        <v>0.06643806139484809</v>
+        <v>0.06779371197750095</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3246511911553469</v>
+        <v>0.3118760765472217</v>
       </c>
       <c r="G5">
-        <v>0.2384806846779881</v>
+        <v>0.2094306885227724</v>
       </c>
       <c r="H5">
-        <v>0.0001498090995952772</v>
+        <v>0.0001303471238540688</v>
       </c>
       <c r="I5">
-        <v>0.0005489452251343785</v>
+        <v>0.0006051089460310521</v>
       </c>
       <c r="J5">
-        <v>0.2477244627123554</v>
+        <v>0.2719489743157126</v>
       </c>
       <c r="K5">
-        <v>0.2530540558653573</v>
+        <v>0.2363997512821499</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1408084574913637</v>
       </c>
       <c r="M5">
-        <v>0.5228685663889507</v>
+        <v>0.05072380768228602</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.907401201141212</v>
+        <v>0.5296946662154625</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9722571388148538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.909238096010725</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9293929196703488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4472569264593318</v>
+        <v>0.4472479716153543</v>
       </c>
       <c r="C6">
-        <v>0.1271774769261711</v>
+        <v>0.1218846586670281</v>
       </c>
       <c r="D6">
-        <v>0.06613474367836858</v>
+        <v>0.06745749461087058</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3235198032380993</v>
+        <v>0.310874182723488</v>
       </c>
       <c r="G6">
-        <v>0.2377185373733965</v>
+        <v>0.2088188355553697</v>
       </c>
       <c r="H6">
-        <v>0.0001671262949018981</v>
+        <v>0.0001463588561709805</v>
       </c>
       <c r="I6">
-        <v>0.0006564691900834418</v>
+        <v>0.0007255351557349243</v>
       </c>
       <c r="J6">
-        <v>0.2475109325417009</v>
+        <v>0.2716956698033997</v>
       </c>
       <c r="K6">
-        <v>0.2527343622128431</v>
+        <v>0.2361715400327604</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1408171325319714</v>
       </c>
       <c r="M6">
-        <v>0.520256400218571</v>
+        <v>0.05066001528886943</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.89373900530255</v>
+        <v>0.5269752465534054</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9701825492579985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.895583524221877</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9276800974157737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4673513136243912</v>
+        <v>0.4664761907121289</v>
       </c>
       <c r="C7">
-        <v>0.1300665665635137</v>
+        <v>0.1256225168989502</v>
       </c>
       <c r="D7">
-        <v>0.06895162745472305</v>
+        <v>0.0706420838320625</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3276300732900808</v>
+        <v>0.3135661886203778</v>
       </c>
       <c r="G7">
-        <v>0.2394849658256533</v>
+        <v>0.2117337297552666</v>
       </c>
       <c r="H7">
-        <v>6.760022407492627E-05</v>
+        <v>5.545985543209397E-05</v>
       </c>
       <c r="I7">
-        <v>0.0006695612372800142</v>
+        <v>0.0007887846425953526</v>
       </c>
       <c r="J7">
-        <v>0.2471390110577829</v>
+        <v>0.2685262418212062</v>
       </c>
       <c r="K7">
-        <v>0.2518293682067618</v>
+        <v>0.2345414530793715</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1390328152227518</v>
       </c>
       <c r="M7">
-        <v>0.5412310592808751</v>
+        <v>0.05043373155672182</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.988507614585927</v>
+        <v>0.5485226662928397</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9732270514390393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.990283010469767</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9267884514211175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5561619969829508</v>
+        <v>0.5511777509061062</v>
       </c>
       <c r="C8">
-        <v>0.142111909154174</v>
+        <v>0.1418116318679665</v>
       </c>
       <c r="D8">
-        <v>0.08116777868298897</v>
+        <v>0.08423417994168148</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3476446519804526</v>
+        <v>0.328494236130048</v>
       </c>
       <c r="G8">
-        <v>0.2489218603012731</v>
+        <v>0.2221064007064015</v>
       </c>
       <c r="H8">
-        <v>0.0001419574367989007</v>
+        <v>0.0001554296541539379</v>
       </c>
       <c r="I8">
-        <v>0.0007854725965019682</v>
+        <v>0.001038905353827779</v>
       </c>
       <c r="J8">
-        <v>0.2464872260959652</v>
+        <v>0.261949749030137</v>
       </c>
       <c r="K8">
-        <v>0.2491459852838318</v>
+        <v>0.2291691225236185</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1323623257959223</v>
       </c>
       <c r="M8">
-        <v>0.6325869878831867</v>
+        <v>0.05072897836892309</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.40788067692705</v>
+        <v>0.6428793032893196</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9922007817453107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.409312530837553</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.9318814375870517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.729371808930523</v>
+        <v>0.71556009920522</v>
       </c>
       <c r="C9">
-        <v>0.164632183942274</v>
+        <v>0.1734717831007515</v>
       </c>
       <c r="D9">
-        <v>0.1047539802584225</v>
+        <v>0.1101349065540944</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.391989424718524</v>
+        <v>0.3644681880857448</v>
       </c>
       <c r="G9">
-        <v>0.2717443008265761</v>
+        <v>0.2393590682318205</v>
       </c>
       <c r="H9">
-        <v>0.002423109157033476</v>
+        <v>0.002438498217877338</v>
       </c>
       <c r="I9">
-        <v>0.001815176491736459</v>
+        <v>0.002087098312009594</v>
       </c>
       <c r="J9">
-        <v>0.247890746023316</v>
+        <v>0.2613848866749038</v>
       </c>
       <c r="K9">
-        <v>0.2470608182540417</v>
+        <v>0.2223350068471284</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.121709708135155</v>
       </c>
       <c r="M9">
-        <v>0.8089737468289258</v>
+        <v>0.05567565066450975</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.237251116188929</v>
+        <v>0.8261492986880086</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.044124052427208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.23774556243076</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9612824857138662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8707337462181499</v>
+        <v>0.85081845622841</v>
       </c>
       <c r="C10">
-        <v>0.1843479918791218</v>
+        <v>0.199498161983712</v>
       </c>
       <c r="D10">
-        <v>0.123493256248608</v>
+        <v>0.1314303573945352</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.420024069329429</v>
+        <v>0.3829328243738672</v>
       </c>
       <c r="G10">
-        <v>0.2839683940669886</v>
+        <v>0.2601283154449305</v>
       </c>
       <c r="H10">
-        <v>0.005242985937227829</v>
+        <v>0.005221393634521565</v>
       </c>
       <c r="I10">
-        <v>0.003459712321974173</v>
+        <v>0.003629606595231039</v>
       </c>
       <c r="J10">
-        <v>0.2468432669427187</v>
+        <v>0.2429111309878635</v>
       </c>
       <c r="K10">
-        <v>0.2418638374469495</v>
+        <v>0.2125409677911811</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1126397917202446</v>
       </c>
       <c r="M10">
-        <v>0.956192786200404</v>
+        <v>0.05933860969114058</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.65191675307544</v>
+        <v>0.9775235971317784</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.068253701279701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.65139476459008</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9593748432529026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.081963023876369</v>
+        <v>1.062245659296678</v>
       </c>
       <c r="C11">
-        <v>0.2181159789772806</v>
+        <v>0.2336775063766225</v>
       </c>
       <c r="D11">
-        <v>0.143639293453262</v>
+        <v>0.1537525016390617</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3799959526859311</v>
+        <v>0.3398069949510472</v>
       </c>
       <c r="G11">
-        <v>0.2412625760778226</v>
+        <v>0.2460190500722561</v>
       </c>
       <c r="H11">
-        <v>0.02110478279529815</v>
+        <v>0.02107793437410521</v>
       </c>
       <c r="I11">
-        <v>0.004427985279899183</v>
+        <v>0.00461866208958206</v>
       </c>
       <c r="J11">
-        <v>0.2214905542306198</v>
+        <v>0.1969819216841557</v>
       </c>
       <c r="K11">
-        <v>0.2048047909735971</v>
+        <v>0.1788936864453934</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0991045059667659</v>
       </c>
       <c r="M11">
-        <v>1.189539118186872</v>
+        <v>0.04873182494047335</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.300905776083624</v>
+        <v>1.209229795442383</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9247941466050946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>2.300252946655107</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8123917521179038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.2441277129046</v>
+        <v>1.226052075365175</v>
       </c>
       <c r="C12">
-        <v>0.2437329262598809</v>
+        <v>0.2577403815973582</v>
       </c>
       <c r="D12">
-        <v>0.156918504611042</v>
+        <v>0.1677997947571583</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3435041910533556</v>
+        <v>0.3050898201190648</v>
       </c>
       <c r="G12">
-        <v>0.2068880066670076</v>
+        <v>0.2243320800948894</v>
       </c>
       <c r="H12">
-        <v>0.05839056812605037</v>
+        <v>0.05837117523634561</v>
       </c>
       <c r="I12">
-        <v>0.004553587478257626</v>
+        <v>0.004715165223055706</v>
       </c>
       <c r="J12">
-        <v>0.2021442500157562</v>
+        <v>0.176858714572365</v>
       </c>
       <c r="K12">
-        <v>0.1791518072268197</v>
+        <v>0.1578379757737629</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09180834046746433</v>
       </c>
       <c r="M12">
-        <v>1.368222283836218</v>
+        <v>0.04068054177824898</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.350230962866988</v>
+        <v>1.385418732111333</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.8114747756022922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.349754075907882</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7084747462338896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.374465352924432</v>
+        <v>1.358947096274846</v>
       </c>
       <c r="C13">
-        <v>0.2654613458376787</v>
+        <v>0.2771000330706528</v>
       </c>
       <c r="D13">
-        <v>0.1658789629410649</v>
+        <v>0.1759127253936157</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3056001108407429</v>
+        <v>0.2738217549282638</v>
       </c>
       <c r="G13">
-        <v>0.1749865408189564</v>
+        <v>0.1902077104618627</v>
       </c>
       <c r="H13">
-        <v>0.1134085919853476</v>
+        <v>0.1133997670643936</v>
       </c>
       <c r="I13">
-        <v>0.004348448244572367</v>
+        <v>0.004528250633594411</v>
       </c>
       <c r="J13">
-        <v>0.1852408790419275</v>
+        <v>0.1706675354770084</v>
       </c>
       <c r="K13">
-        <v>0.1589854576651195</v>
+        <v>0.1434280711105362</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08752669158745174</v>
       </c>
       <c r="M13">
-        <v>1.514212176332933</v>
+        <v>0.03396024621230431</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6453016835348961</v>
+        <v>1.528747212746055</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.7084403199909559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6450737098003287</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6269946979758174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.451210372183652</v>
+        <v>1.437915686181412</v>
       </c>
       <c r="C14">
-        <v>0.2793965864474757</v>
+        <v>0.2890000559644506</v>
       </c>
       <c r="D14">
-        <v>0.1702668606114628</v>
+        <v>0.1789344692386976</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2784596273483544</v>
+        <v>0.2530783552837121</v>
       </c>
       <c r="G14">
-        <v>0.1539353347915551</v>
+        <v>0.1623973564112333</v>
       </c>
       <c r="H14">
-        <v>0.1625157046509003</v>
+        <v>0.162512560350919</v>
       </c>
       <c r="I14">
-        <v>0.004142401306579835</v>
+        <v>0.004368792005034372</v>
       </c>
       <c r="J14">
-        <v>0.1745325082865961</v>
+        <v>0.1705482862370076</v>
       </c>
       <c r="K14">
-        <v>0.1475405278368047</v>
+        <v>0.1360665026279895</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08558740012357058</v>
       </c>
       <c r="M14">
-        <v>1.602321540424128</v>
+        <v>0.02996487309989604</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2970044789889741</v>
+        <v>1.614890140947779</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.641349911677878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2969138278817525</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5786836861019822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.460694877845896</v>
+        <v>1.448090990130737</v>
       </c>
       <c r="C15">
-        <v>0.2821062864719437</v>
+        <v>0.2911567615894342</v>
       </c>
       <c r="D15">
-        <v>0.1704255700535384</v>
+        <v>0.1784382161992113</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.271035002025215</v>
+        <v>0.2480249014215872</v>
       </c>
       <c r="G15">
-        <v>0.1487334151829387</v>
+        <v>0.1535679382295925</v>
       </c>
       <c r="H15">
-        <v>0.1749766859512931</v>
+        <v>0.1749749174885551</v>
       </c>
       <c r="I15">
-        <v>0.00411924348570647</v>
+        <v>0.00438949551783363</v>
       </c>
       <c r="J15">
-        <v>0.1721688339778424</v>
+        <v>0.1722765444574534</v>
       </c>
       <c r="K15">
-        <v>0.1453381157176796</v>
+        <v>0.13499573359252</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08540068314502269</v>
       </c>
       <c r="M15">
-        <v>1.615085786178867</v>
+        <v>0.02910941854235638</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2301411552785559</v>
+        <v>1.627223144603107</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.625345352161105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.230080223111365</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5690948674786682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.367500157056412</v>
+        <v>1.356143860924419</v>
       </c>
       <c r="C16">
-        <v>0.2688336654769898</v>
+        <v>0.2773113542945396</v>
       </c>
       <c r="D16">
-        <v>0.1602822402995514</v>
+        <v>0.1656911355881334</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2660633349661481</v>
+        <v>0.2500808758507844</v>
       </c>
       <c r="G16">
-        <v>0.1493340650645081</v>
+        <v>0.1379105947527179</v>
       </c>
       <c r="H16">
-        <v>0.1620780791449477</v>
+        <v>0.1620782082714953</v>
       </c>
       <c r="I16">
-        <v>0.003519412532920541</v>
+        <v>0.003901480057474593</v>
       </c>
       <c r="J16">
-        <v>0.1755251568340341</v>
+        <v>0.1912074201469167</v>
       </c>
       <c r="K16">
-        <v>0.1508655168419573</v>
+        <v>0.142018365127595</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08835786139001289</v>
       </c>
       <c r="M16">
-        <v>1.516645409010778</v>
+        <v>0.03018274280999123</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2251194271384129</v>
+        <v>1.52935642311877</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.6334740339477065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2251096239782164</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5937794109534877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.255312424735081</v>
+        <v>1.243905129617644</v>
       </c>
       <c r="C17">
-        <v>0.2512428197117487</v>
+        <v>0.2600623710883525</v>
       </c>
       <c r="D17">
-        <v>0.1502148824486085</v>
+        <v>0.1547220885545073</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2765832653355602</v>
+        <v>0.2621579536091474</v>
       </c>
       <c r="G17">
-        <v>0.160804713501868</v>
+        <v>0.1417242712482079</v>
       </c>
       <c r="H17">
-        <v>0.1241944651493725</v>
+        <v>0.1241940951272795</v>
       </c>
       <c r="I17">
-        <v>0.003212367202681143</v>
+        <v>0.003647874428830633</v>
       </c>
       <c r="J17">
-        <v>0.1837708643032627</v>
+        <v>0.2065207669954781</v>
       </c>
       <c r="K17">
-        <v>0.1610088522466455</v>
+        <v>0.1514211869101345</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09208050939047929</v>
       </c>
       <c r="M17">
-        <v>1.394417204497159</v>
+        <v>0.03287723182860525</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3795988570312829</v>
+        <v>1.408266991304259</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6749453779790571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3796319853708354</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6376964092021637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.119786010347013</v>
+        <v>1.107114567808367</v>
       </c>
       <c r="C18">
-        <v>0.227962372078423</v>
+        <v>0.2379958436905838</v>
       </c>
       <c r="D18">
-        <v>0.1390514821847546</v>
+        <v>0.143568378059669</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3031361742136127</v>
+        <v>0.2868202828678008</v>
       </c>
       <c r="G18">
-        <v>0.1848310554014958</v>
+        <v>0.1600129587657548</v>
       </c>
       <c r="H18">
-        <v>0.07135143638094377</v>
+        <v>0.07135219862821884</v>
       </c>
       <c r="I18">
-        <v>0.002848824401135985</v>
+        <v>0.003254988460469121</v>
       </c>
       <c r="J18">
-        <v>0.1979916732843847</v>
+        <v>0.2227972703062164</v>
       </c>
       <c r="K18">
-        <v>0.1781948276969967</v>
+        <v>0.1658927463916058</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09767187654595588</v>
       </c>
       <c r="M18">
-        <v>1.242448434470759</v>
+        <v>0.03785481081474629</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.813810212102247</v>
+        <v>1.258225632804567</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7555916856068166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8139133726302035</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7113125374902154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9797039971279844</v>
+        <v>0.9651052217093934</v>
       </c>
       <c r="C19">
-        <v>0.2056915774440569</v>
+        <v>0.217369705118017</v>
       </c>
       <c r="D19">
-        <v>0.1286060274950813</v>
+        <v>0.1336334411593185</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3401388623089971</v>
+        <v>0.3195653115309227</v>
       </c>
       <c r="G19">
-        <v>0.2177099889618006</v>
+        <v>0.1875226824942402</v>
       </c>
       <c r="H19">
-        <v>0.02660553194721871</v>
+        <v>0.02660932799149407</v>
       </c>
       <c r="I19">
-        <v>0.00299571165987178</v>
+        <v>0.003423278907689564</v>
       </c>
       <c r="J19">
-        <v>0.2159566038346199</v>
+        <v>0.2395883861617492</v>
       </c>
       <c r="K19">
-        <v>0.2009256860789179</v>
+        <v>0.1842386468702344</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.104622442981519</v>
       </c>
       <c r="M19">
-        <v>1.087568885690331</v>
+        <v>0.04466074198614223</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.638210270580785</v>
+        <v>1.105490839722478</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8628927306925789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.638375425291215</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8046401800556424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8315498905354843</v>
+        <v>0.8130646946757167</v>
       </c>
       <c r="C20">
-        <v>0.1819787408832099</v>
+        <v>0.196383640484953</v>
       </c>
       <c r="D20">
-        <v>0.1193434195248813</v>
+        <v>0.1260886978756872</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4085934322554294</v>
+        <v>0.3766696275123138</v>
       </c>
       <c r="G20">
-        <v>0.276981566137998</v>
+        <v>0.2438487106643308</v>
       </c>
       <c r="H20">
-        <v>0.004369545338906988</v>
+        <v>0.004362942873553877</v>
       </c>
       <c r="I20">
-        <v>0.003682058640232633</v>
+        <v>0.004058845488229323</v>
       </c>
       <c r="J20">
-        <v>0.2451408999834115</v>
+        <v>0.2557026200612071</v>
       </c>
       <c r="K20">
-        <v>0.2400187940421112</v>
+        <v>0.213432424329973</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1143365702447543</v>
       </c>
       <c r="M20">
-        <v>0.9212071021975419</v>
+        <v>0.05762576652643503</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.534267888848149</v>
+        <v>0.9420405982246223</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.049771180603187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.534097840478708</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9556841790096087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9153070883807004</v>
+        <v>0.8932712079737257</v>
       </c>
       <c r="C21">
-        <v>0.1929508445176253</v>
+        <v>0.2095452467139012</v>
       </c>
       <c r="D21">
-        <v>0.1316927261718348</v>
+        <v>0.1433434223734906</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4410651494966515</v>
+        <v>0.3878730377704471</v>
       </c>
       <c r="G21">
-        <v>0.2964768802040822</v>
+        <v>0.309833276554258</v>
       </c>
       <c r="H21">
-        <v>0.007798285822128714</v>
+        <v>0.007729250724976322</v>
       </c>
       <c r="I21">
-        <v>0.005146537816847818</v>
+        <v>0.005302153650245778</v>
       </c>
       <c r="J21">
-        <v>0.2495996023471534</v>
+        <v>0.2026096311305281</v>
       </c>
       <c r="K21">
-        <v>0.2434650893064827</v>
+        <v>0.2061273341653163</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1078702961835383</v>
       </c>
       <c r="M21">
-        <v>1.006068046909803</v>
+        <v>0.06087411650521446</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.167176324035253</v>
+        <v>1.027230089782137</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.100745766822442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.165690055323878</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9457112205345055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.979053988653817</v>
+        <v>0.95490042789163</v>
       </c>
       <c r="C22">
-        <v>0.2003187630587036</v>
+        <v>0.2180061290126076</v>
       </c>
       <c r="D22">
-        <v>0.1401122132956516</v>
+        <v>0.1552575887518088</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4612126404336152</v>
+        <v>0.3932220325383682</v>
       </c>
       <c r="G22">
-        <v>0.3081589298618965</v>
+        <v>0.3595046110511362</v>
       </c>
       <c r="H22">
-        <v>0.01020752259963351</v>
+        <v>0.01008497075316343</v>
       </c>
       <c r="I22">
-        <v>0.005984970752266783</v>
+        <v>0.005886988890577705</v>
       </c>
       <c r="J22">
-        <v>0.2520133592652698</v>
+        <v>0.1749180031250539</v>
       </c>
       <c r="K22">
-        <v>0.2450596804647098</v>
+        <v>0.2004677965073363</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1035778118024258</v>
       </c>
       <c r="M22">
-        <v>1.069234413083564</v>
+        <v>0.06282772118571955</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.480634139627412</v>
+        <v>1.090324313141565</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.130760662962189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.478199811168906</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9336327904936752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9461040682325859</v>
+        <v>0.922819906123209</v>
       </c>
       <c r="C23">
-        <v>0.1953431144557101</v>
+        <v>0.2126765214636634</v>
       </c>
       <c r="D23">
-        <v>0.1353404440351369</v>
+        <v>0.1482001909925117</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4518008453835094</v>
+        <v>0.3933304328064509</v>
       </c>
       <c r="G23">
-        <v>0.3031835142110566</v>
+        <v>0.3277126065322307</v>
       </c>
       <c r="H23">
-        <v>0.008886840571050214</v>
+        <v>0.008796135129405636</v>
       </c>
       <c r="I23">
-        <v>0.005246705673685348</v>
+        <v>0.005231589988143881</v>
       </c>
       <c r="J23">
-        <v>0.2513735588953523</v>
+        <v>0.1933949425913788</v>
       </c>
       <c r="K23">
-        <v>0.2453123230570711</v>
+        <v>0.2051755417296732</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1063876518083227</v>
       </c>
       <c r="M23">
-        <v>1.034405995850989</v>
+        <v>0.06250603337531757</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.313158233516901</v>
+        <v>1.055959083954292</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.118769717988656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.311281374428447</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9486056105583316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8191274131610271</v>
+        <v>0.8005024604711082</v>
       </c>
       <c r="C24">
-        <v>0.1782926265447742</v>
+        <v>0.1924450456359637</v>
       </c>
       <c r="D24">
-        <v>0.1177434132245736</v>
+        <v>0.1244865234585433</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4150053774819753</v>
+        <v>0.3825128622940923</v>
       </c>
       <c r="G24">
-        <v>0.2831338676127473</v>
+        <v>0.2489293434881503</v>
       </c>
       <c r="H24">
-        <v>0.004660044770203431</v>
+        <v>0.004652841307477562</v>
       </c>
       <c r="I24">
-        <v>0.003242394360248646</v>
+        <v>0.003517988478232148</v>
       </c>
       <c r="J24">
-        <v>0.2483983392222697</v>
+        <v>0.2590282479857535</v>
       </c>
       <c r="K24">
-        <v>0.2449752658310018</v>
+        <v>0.217570653134171</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1159108897680632</v>
       </c>
       <c r="M24">
-        <v>0.9041269934517686</v>
+        <v>0.05916754136464597</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.683394159703056</v>
+        <v>0.9250298739158609</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.069632353036255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.683210950217543</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9734283317529275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6811946053494466</v>
+        <v>0.6697580448332019</v>
       </c>
       <c r="C25">
-        <v>0.1600303338206714</v>
+        <v>0.1667447058319453</v>
       </c>
       <c r="D25">
-        <v>0.09878144457686489</v>
+        <v>0.1033269469336204</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3775052266046117</v>
+        <v>0.353394970340517</v>
       </c>
       <c r="G25">
-        <v>0.2632916959486451</v>
+        <v>0.2297049542092324</v>
       </c>
       <c r="H25">
-        <v>0.001547225689890297</v>
+        <v>0.001568634829035798</v>
       </c>
       <c r="I25">
-        <v>0.001791747874626104</v>
+        <v>0.002166082333525665</v>
       </c>
       <c r="J25">
-        <v>0.2462805976042262</v>
+        <v>0.2646501176286691</v>
       </c>
       <c r="K25">
-        <v>0.2457091341416948</v>
+        <v>0.2229774642610067</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1240235608790137</v>
       </c>
       <c r="M25">
-        <v>0.7630469617207893</v>
+        <v>0.05356520224671613</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.011793142884414</v>
+        <v>0.7785630111295063</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.022675340516969</v>
+        <v>3.012610252316847</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9494069184320182</v>
       </c>
     </row>
   </sheetData>
